--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torsteinl/Documents/TTT4280/lab/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1E6E08BA-0685-C847-A5DE-DF02B26A23E2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{688ECC6C-EB31-BC44-83CA-9FDE5D2DD07E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540"/>
   </bookViews>
@@ -966,7 +966,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,6 +1785,9 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>70</v>
+      </c>
       <c r="J26" t="s">
         <v>32</v>
       </c>
@@ -1802,6 +1805,9 @@
       <c r="D27">
         <v>2</v>
       </c>
+      <c r="H27">
+        <v>83</v>
+      </c>
       <c r="J27" t="s">
         <v>32</v>
       </c>
@@ -1814,10 +1820,13 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="H28">
+        <v>73</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torsteinl/Documents/TTT4280/lab/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{688ECC6C-EB31-BC44-83CA-9FDE5D2DD07E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{137FE757-F717-FF46-A98F-0F8FAEA7F1EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="460" windowWidth="24640" windowHeight="15540"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
   <si>
     <t>Situasjon</t>
   </si>
@@ -76,15 +76,9 @@
     <t>Faktiskpuls</t>
   </si>
   <si>
-    <t>0.138</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>0.56</t>
-  </si>
-  <si>
     <t>SnittTorstein</t>
   </si>
   <si>
@@ -119,6 +113,30 @@
   </si>
   <si>
     <t>Transmittans_Rettpa</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>Puls_green</t>
+  </si>
+  <si>
+    <t>Puls_blue</t>
+  </si>
+  <si>
+    <t>Standardavvik_green</t>
+  </si>
+  <si>
+    <t>Standardavvik_blue</t>
+  </si>
+  <si>
+    <t>Esktra1</t>
+  </si>
+  <si>
+    <t>gauteHandledd1.mp4</t>
   </si>
 </sst>
 </file>
@@ -605,9 +623,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,56 +982,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1020,10 +1054,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1039,13 +1073,25 @@
       </c>
       <c r="I2">
         <f>(C2-H2)^2</f>
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="K2">
+        <v>79</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>102</v>
+      </c>
+      <c r="N2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1053,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -1072,13 +1118,25 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" si="0">(C3-H3)^2</f>
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>92</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>134</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1108,21 +1166,33 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>136</v>
+      </c>
+      <c r="N4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1138,24 +1208,36 @@
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>76</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>81</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1171,13 +1253,25 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>72</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>79</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1207,10 +1301,10 @@
         <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1240,10 +1334,10 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1273,21 +1367,21 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1303,24 +1397,24 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>841</v>
+        <v>196</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1336,26 +1430,26 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <f>AVERAGE(C2:C6)</f>
-        <v>79.2</v>
+        <v>78.2</v>
       </c>
       <c r="D12">
         <f>(1/COUNT(D2:D6))*SUM(I2:I6)</f>
-        <v>45.6</v>
+        <v>25.400000000000002</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1367,20 +1461,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C7:C11)</f>
-        <v>84.2</v>
+        <v>80.8</v>
       </c>
       <c r="D13">
         <f>(1/COUNT(D7:D11))*SUM(I7:I11)</f>
-        <v>251.20000000000002</v>
+        <v>115.80000000000001</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1392,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1400,32 +1494,44 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
       </c>
       <c r="H14">
         <v>72</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I23" si="1">(C14-H14)^2</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>166</v>
+      </c>
+      <c r="L14">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1455,10 +1561,22 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K15">
+        <v>84</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>77</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1488,21 +1606,33 @@
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>67</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>143</v>
+      </c>
+      <c r="N16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1518,18 +1648,30 @@
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>113</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>89</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>69</v>
@@ -1554,10 +1696,22 @@
         <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K18">
+        <v>69</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>74</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1587,10 +1741,10 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1620,10 +1774,10 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1631,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1650,24 +1804,24 @@
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1683,18 +1837,30 @@
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="K22">
+        <v>63</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>171</v>
+      </c>
+      <c r="N22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -1719,23 +1885,23 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <f>AVERAGE(C14:C18)</f>
-        <v>77.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <f>(1/COUNT(D14:D18))*SUM(I14:I18)</f>
-        <v>119.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1747,20 +1913,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <f>AVERAGE(C19:C23)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <f>(1/COUNT(D19:D23))*SUM(I19:I23)</f>
-        <v>59.400000000000006</v>
+        <v>28.200000000000003</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1772,9 +1938,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
@@ -1785,59 +1951,210 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26">
         <v>70</v>
       </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I31" si="2">(C26-H26)^2</f>
+        <v>16</v>
+      </c>
       <c r="J26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
       </c>
       <c r="H27">
         <v>83</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="J27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
       </c>
       <c r="H28">
         <v>73</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>73</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30">
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>73</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>69</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>59</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
       </c>
     </row>
     <row r="1048576" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1048576" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
   <si>
     <t xml:space="preserve">Situasjon</t>
   </si>
@@ -79,13 +79,7 @@
     <t xml:space="preserve">torsteinFinger3.mp4</t>
   </si>
   <si>
-    <t xml:space="preserve">0.094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034</t>
+    <t xml:space="preserve">Transmittans-boks, pulse bin 40-124</t>
   </si>
   <si>
     <t xml:space="preserve">torsteinFinger4.mp4</t>
@@ -115,13 +109,10 @@
     <t xml:space="preserve">SnittGaute</t>
   </si>
   <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.046</t>
-  </si>
-  <si>
     <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refleksjon-Rettpa, pulse bin 34-174</t>
   </si>
   <si>
     <t xml:space="preserve">Refleksjon-Rettpa</t>
@@ -253,8 +244,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -266,7 +257,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.33"/>
@@ -422,14 +413,14 @@
       <c r="D4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>21</v>
+      <c r="E4" s="0" t="n">
+        <v>0.0818</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.029</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>77</v>
@@ -439,7 +430,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>80</v>
@@ -459,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>74</v>
@@ -504,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>71</v>
@@ -549,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>89</v>
@@ -582,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>75</v>
@@ -615,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>70</v>
@@ -648,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>87</v>
@@ -681,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>83</v>
@@ -714,7 +705,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C6)</f>
@@ -739,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">AVERAGE(C7:C11)</f>
@@ -772,14 +763,14 @@
       <c r="D14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>32</v>
+      <c r="E14" s="0" t="n">
+        <v>0.2232</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.142</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>72</v>
@@ -789,7 +780,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>75</v>
@@ -834,7 +825,7 @@
         <v>25</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>84</v>
@@ -879,7 +870,7 @@
         <v>49</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>67</v>
@@ -899,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>80</v>
@@ -924,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>104</v>
@@ -944,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>70</v>
@@ -969,7 +960,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>69</v>
@@ -989,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>81</v>
@@ -1014,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1022,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>85</v>
@@ -1047,7 +1038,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>70</v>
@@ -1080,7 +1071,7 @@
         <v>36</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>64</v>
@@ -1113,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>63</v>
@@ -1133,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>80</v>
@@ -1158,7 +1149,7 @@
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">AVERAGE(C14:C18)</f>
@@ -1191,7 +1182,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C19:C23)</f>
@@ -1213,16 +1204,16 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>15</v>
@@ -1238,15 +1229,27 @@
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">(C26-H26)^2</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>17</v>
@@ -1274,21 +1277,33 @@
         <v>16</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>15</v>
@@ -1304,18 +1319,30 @@
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">(C28-H28)^2</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>68</v>
@@ -1340,15 +1367,27 @@
         <v>25</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>68</v>
@@ -1373,15 +1412,27 @@
         <v>9</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>69</v>
@@ -1406,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>69</v>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="37">
   <si>
     <t xml:space="preserve">Situasjon</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">Transmittans_Rettpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmittans_Rettpa, pulse bin 35-213</t>
   </si>
   <si>
     <t xml:space="preserve">Esktra1</t>
@@ -245,7 +248,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1395,14 +1398,14 @@
       <c r="D30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>15</v>
+      <c r="E30" s="0" t="n">
+        <v>0.2739</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.3026</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.0048</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>65</v>
@@ -1412,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>68</v>
@@ -1429,10 +1432,10 @@
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>69</v>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="malinger" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="interp 16" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
   <si>
     <t xml:space="preserve">Situasjon</t>
   </si>
@@ -247,8 +248,8 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,7 +314,7 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
@@ -358,7 +359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -403,7 +404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -448,7 +449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
@@ -493,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1</v>
       </c>
@@ -728,7 +729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>15</v>
       </c>
@@ -753,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>2</v>
       </c>
@@ -798,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>2</v>
       </c>
@@ -888,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>2</v>
       </c>
@@ -933,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>2</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>32</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>32</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>32</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>32</v>
       </c>
@@ -1475,6 +1476,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J1048576" s="0" t="s">
@@ -1490,4 +1492,1228 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="10.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">(C2-H2)^2</f>
+        <v>1.68999999999999</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>77.1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">(C3-H3)^2</f>
+        <v>4.40999999999998</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">(C4-H4)^2</f>
+        <v>94.0900000000001</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">(C5-H5)^2</f>
+        <v>42.25</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>70.9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">(C6-H6)^2</f>
+        <v>4.40999999999998</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">(C7-H7)^2</f>
+        <v>324</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">(C8-H8)^2</f>
+        <v>9</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">(C9-H9)^2</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">(C10-H10)^2</f>
+        <v>196</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">(C11-H11)^2</f>
+        <v>49</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">AVERAGE(C2:C6)</f>
+        <v>76.1</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">(1/COUNT(D2:D6))*SUM(I2:I6)</f>
+        <v>29.37</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">AVERAGE(C7:C11)</f>
+        <v>80.8</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">(1/COUNT(D7:D11))*SUM(I7:I11)</f>
+        <v>115.8</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">(C14-H14)^2</f>
+        <v>492.84</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">(C15-H15)^2</f>
+        <v>36</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">(C16-H16)^2</f>
+        <v>51.84</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">(C17-H17)^2</f>
+        <v>70.5600000000001</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>67.9</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">(C18-H18)^2</f>
+        <v>62.4100000000001</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">(C19-H19)^2</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">(C20-H20)^2</f>
+        <v>36</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">(C21-H21)^2</f>
+        <v>36</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">(C22-H22)^2</f>
+        <v>16</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">(C23-H23)^2</f>
+        <v>49</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">AVERAGE(C14:C18)</f>
+        <v>71.38</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">(1/COUNT(D14:D18))*SUM(I14:I18)</f>
+        <v>142.73</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">AVERAGE(C19:C23)</f>
+        <v>76</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">(1/COUNT(D19:D23))*SUM(I19:I23)</f>
+        <v>28.2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">(C26-H26)^2</f>
+        <v>4.40999999999998</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">(C27-H27)^2</f>
+        <v>4</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>73.4</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">(C28-H28)^2</f>
+        <v>497.29</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">(C29-H29)^2</f>
+        <v>36</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">(C30-H30)^2</f>
+        <v>10.89</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">(C31-H31)^2</f>
+        <v>16</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1048576" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="malinger" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="interp 16" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="interp 16" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="42">
   <si>
     <t xml:space="preserve">Situasjon</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Standardavvik_blue</t>
   </si>
   <si>
+    <t xml:space="preserve">Transmittans boks</t>
+  </si>
+  <si>
     <t xml:space="preserve">torsteinFinger1.mp4</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t xml:space="preserve">gauteFinger3.mp4</t>
   </si>
   <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
     <t xml:space="preserve">gauteFinger4.mp4</t>
   </si>
   <si>
@@ -110,7 +116,7 @@
     <t xml:space="preserve">SnittGaute</t>
   </si>
   <si>
-    <t xml:space="preserve">NaN</t>
+    <t xml:space="preserve">Reflektans</t>
   </si>
   <si>
     <t xml:space="preserve">Refleksjon-Rettpa, pulse bin 34-174</t>
@@ -119,7 +125,7 @@
     <t xml:space="preserve">Refleksjon-Rettpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Ekstra1</t>
+    <t xml:space="preserve">Transmittans direkte</t>
   </si>
   <si>
     <t xml:space="preserve">Transmittans_Rettpa</t>
@@ -128,10 +134,19 @@
     <t xml:space="preserve">Transmittans_Rettpa, pulse bin 35-213</t>
   </si>
   <si>
-    <t xml:space="preserve">Esktra1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauteHandledd1.mp4</t>
+    <t xml:space="preserve">Høy puls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalde fingre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variert avstand</t>
   </si>
 </sst>
 </file>
@@ -248,13 +263,13 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
@@ -315,107 +330,107 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>76</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">(C2-H2)^2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>75</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">(C3-H3)^2</f>
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
+      <c r="A4" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>18</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0.0818</v>
@@ -431,341 +446,401 @@
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">(C4-H4)^2</f>
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
+      <c r="A5" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>75</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">(C5-H5)^2</f>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
+      <c r="A6" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>73</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">(C6-H6)^2</f>
+        <v>9</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>71</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>72</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>1</v>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>19</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>71</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">(C7-H7)^2</f>
-        <v>324</v>
+        <v>400</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>72</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">(C8-H8)^2</f>
+        <v>25</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
+      <c r="M8" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>69</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">(C9-H9)^2</f>
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>73</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">(C10-H10)^2</f>
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>76</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">(C11-H11)^2</f>
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C6)</f>
-        <v>77.4</v>
+        <v>74.4</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">(1/COUNT(D2:D6))*SUM(I2:I6)</f>
-        <v>17.4</v>
+        <v>27.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">AVERAGE(C7:C11)</f>
-        <v>80.8</v>
+        <v>81.8</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">(1/COUNT(D7:D11))*SUM(I7:I11)</f>
-        <v>115.8</v>
+        <v>182.8</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.2232</v>
@@ -774,549 +849,597 @@
         <v>0.142</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">(C14-H14)^2</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>2</v>
+      <c r="A15" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">(C15-H15)^2</f>
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="J15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">(C16-H16)^2</f>
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="J16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">(C17-H17)^2</f>
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">(C18-H18)^2</f>
-        <v>100</v>
+        <v>676</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>72</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">(C19-H19)^2</f>
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="J19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">(C20-H20)^2</f>
-        <v>36</v>
+        <v>441</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="B21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">(C21-H21)^2</f>
-        <v>36</v>
+        <v>1089</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">(C22-H22)^2</f>
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>9</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">(C23-H23)^2</f>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">AVERAGE(C14:C18)</f>
-        <v>73.8</v>
+        <v>80</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">(1/COUNT(D14:D18))*SUM(I14:I18)</f>
-        <v>38.2</v>
+        <v>206.2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C19:C23)</f>
-        <v>76</v>
+        <v>70.4</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">(1/COUNT(D19:D23))*SUM(I19:I23)</f>
-        <v>28.2</v>
+        <v>379</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>70</v>
       </c>
       <c r="I26" s="0" t="n">
         <f aca="false">(C26-H26)^2</f>
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>83</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">(C27-H27)^2</f>
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>76</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>73</v>
@@ -1326,27 +1449,27 @@
         <v>9</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>68</v>
@@ -1355,13 +1478,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>73</v>
@@ -1371,30 +1494,30 @@
         <v>25</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>68</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -1413,74 +1536,317 @@
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">(C30-H30)^2</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H31" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <f aca="false">(C31-H31)^2</f>
-        <v>16</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D39" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J1048576" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1501,13 +1867,13 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="C2:C6 A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
@@ -1572,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>77.3</v>
@@ -1581,13 +1947,13 @@
         <v>5.1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>76</v>
@@ -1597,7 +1963,7 @@
         <v>1.68999999999999</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>76.3</v>
@@ -1617,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>77.1</v>
@@ -1626,13 +1992,13 @@
         <v>5.1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>75</v>
@@ -1642,7 +2008,7 @@
         <v>4.40999999999998</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>77.2</v>
@@ -1662,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>86.7</v>
@@ -1678,7 +2044,7 @@
         <v>94.0900000000001</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>84.6</v>
@@ -1698,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>68.5</v>
@@ -1707,13 +2073,13 @@
         <v>6.5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>75</v>
@@ -1723,7 +2089,7 @@
         <v>42.25</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>73.3</v>
@@ -1743,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>70.9</v>
@@ -1752,13 +2118,13 @@
         <v>2.2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>73</v>
@@ -1768,7 +2134,7 @@
         <v>4.40999999999998</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>68.8</v>
@@ -1788,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>89</v>
@@ -1797,13 +2163,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>71</v>
@@ -1813,7 +2179,7 @@
         <v>324</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1821,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>75</v>
@@ -1830,13 +2196,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>72</v>
@@ -1846,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>70</v>
@@ -1863,13 +2229,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>69</v>
@@ -1879,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1887,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>87</v>
@@ -1896,13 +2262,13 @@
         <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>73</v>
@@ -1912,7 +2278,7 @@
         <v>196</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1920,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>83</v>
@@ -1929,13 +2295,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>76</v>
@@ -1945,15 +2311,15 @@
         <v>49</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C6)</f>
@@ -1964,21 +2330,21 @@
         <v>29.37</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">AVERAGE(C7:C11)</f>
@@ -1989,37 +2355,31 @@
         <v>115.8</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>49.8</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>9.8</v>
-      </c>
       <c r="H14" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">(C14-H14)^2</f>
-        <v>492.84</v>
+        <v>5329</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>67.1</v>
@@ -2039,32 +2399,26 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">(C15-H15)^2</f>
-        <v>36</v>
+        <v>5776</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>92.3</v>
@@ -2084,32 +2438,26 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">(C16-H16)^2</f>
-        <v>51.84</v>
+        <v>4624</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>67.1</v>
@@ -2129,32 +2477,26 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>87.4</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>32.1</v>
+        <v>21</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">(C17-H17)^2</f>
-        <v>70.5600000000001</v>
+        <v>5184</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>98.5</v>
@@ -2174,32 +2516,26 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>67.9</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>4.2</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">(C18-H18)^2</f>
-        <v>62.4100000000001</v>
+        <v>5184</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>70.1</v>
@@ -2219,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>81</v>
@@ -2228,13 +2564,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>79</v>
@@ -2244,7 +2580,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>85</v>
@@ -2261,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>79</v>
@@ -2277,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>70</v>
@@ -2294,13 +2630,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>76</v>
@@ -2310,7 +2646,7 @@
         <v>36</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2318,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>64</v>
@@ -2327,13 +2663,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>68</v>
@@ -2343,7 +2679,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>63</v>
@@ -2363,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>80</v>
@@ -2372,13 +2708,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>73</v>
@@ -2388,40 +2724,40 @@
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C24" s="0" t="e">
         <f aca="false">AVERAGE(C14:C18)</f>
-        <v>71.38</v>
-      </c>
-      <c r="D24" s="0" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="0" t="e">
         <f aca="false">(1/COUNT(D14:D18))*SUM(I14:I18)</f>
-        <v>142.73</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C19:C23)</f>
@@ -2432,21 +2768,21 @@
         <v>28.2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>72.1</v>
@@ -2455,13 +2791,13 @@
         <v>4.1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>70</v>
@@ -2471,7 +2807,7 @@
         <v>4.40999999999998</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>81.2</v>
@@ -2488,10 +2824,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>85</v>
@@ -2500,13 +2836,13 @@
         <v>4.3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>83</v>
@@ -2516,7 +2852,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>92.3</v>
@@ -2533,10 +2869,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>50.7</v>
@@ -2545,13 +2881,13 @@
         <v>13.7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>73</v>
@@ -2561,7 +2897,7 @@
         <v>497.29</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>42.9</v>
@@ -2578,10 +2914,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>67</v>
@@ -2590,13 +2926,13 @@
         <v>1.9</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>73</v>
@@ -2606,7 +2942,7 @@
         <v>36</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>67</v>
@@ -2623,10 +2959,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>68.3</v>
@@ -2642,7 +2978,7 @@
         <v>10.89</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>68.3</v>
@@ -2659,52 +2995,57 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <f aca="false">(C31-H31)^2</f>
-        <v>16</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>59</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>1</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J1048576" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="46">
   <si>
     <t xml:space="preserve">Situasjon</t>
   </si>
@@ -35,6 +35,93 @@
     <t xml:space="preserve">Standardavvik</t>
   </si>
   <si>
+    <t xml:space="preserve">SNR_red [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNR_green [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNR_blue [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faktisk puls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differanse^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puls_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardavvik_green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puls_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardavvik_blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmittans boks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torsteinFinger1.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torsteinFinger2.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torsteinFinger3.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torsteinFinger4.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torsteinFinger5.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauteFinger1.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauteFinger2.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauteFinger3.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauteFinger4.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gauteFinger5.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnittTorstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnittGaute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflektans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transmittans direkte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Høy puls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalde fingre</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNR_red</t>
   </si>
   <si>
@@ -47,76 +134,16 @@
     <t xml:space="preserve">Faktiskpuls</t>
   </si>
   <si>
-    <t xml:space="preserve">Differanse^2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kommentar</t>
   </si>
   <si>
-    <t xml:space="preserve">Puls_green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standardavvik_green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puls_blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standardavvik_blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmittans boks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torsteinFinger1.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transmittans-boks</t>
   </si>
   <si>
-    <t xml:space="preserve">torsteinFinger2.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torsteinFinger3.mp4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Transmittans-boks, pulse bin 40-124</t>
   </si>
   <si>
-    <t xml:space="preserve">torsteinFinger4.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torsteinFinger5.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauteFinger1.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauteFinger2.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauteFinger3.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauteFinger4.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gauteFinger5.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnittTorstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnittGaute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflektans</t>
+    <t xml:space="preserve">Ref</t>
   </si>
   <si>
     <t xml:space="preserve">Refleksjon-Rettpa, pulse bin 34-174</t>
@@ -125,28 +152,13 @@
     <t xml:space="preserve">Refleksjon-Rettpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmittans direkte</t>
+    <t xml:space="preserve">Variert avstand</t>
   </si>
   <si>
     <t xml:space="preserve">Transmittans_Rettpa</t>
   </si>
   <si>
     <t xml:space="preserve">Transmittans_Rettpa, pulse bin 35-213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Høy puls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalde fingre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variert avstand</t>
   </si>
 </sst>
 </file>
@@ -261,30 +273,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="14" style="0" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -324,17 +338,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>75</v>
@@ -343,13 +354,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>76</v>
@@ -358,28 +369,25 @@
         <f aca="false">(C2-H2)^2</f>
         <v>1</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
+      <c r="J2" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="N2" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>72</v>
@@ -388,13 +396,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>75</v>
@@ -403,28 +411,25 @@
         <f aca="false">(C3-H3)^2</f>
         <v>9</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
+      <c r="J3" s="0" t="n">
+        <v>71</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="N3" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>86</v>
@@ -432,14 +437,14 @@
       <c r="D4" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0818</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.086</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>0.029</v>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>77</v>
@@ -448,28 +453,25 @@
         <f aca="false">(C4-H4)^2</f>
         <v>81</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>20</v>
+      <c r="J4" s="0" t="n">
+        <v>81</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>106</v>
-      </c>
-      <c r="N4" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>69</v>
@@ -478,13 +480,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>75</v>
@@ -493,28 +495,25 @@
         <f aca="false">(C5-H5)^2</f>
         <v>36</v>
       </c>
-      <c r="J5" s="0" t="s">
-        <v>17</v>
+      <c r="J5" s="0" t="n">
+        <v>72</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="N5" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>70</v>
@@ -522,14 +521,14 @@
       <c r="D6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>16</v>
+      <c r="E6" s="0" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>11.54</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>9.99</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>73</v>
@@ -538,28 +537,25 @@
         <f aca="false">(C6-H6)^2</f>
         <v>9</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>17</v>
+      <c r="J6" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>71</v>
-      </c>
-      <c r="N6" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>91</v>
@@ -568,13 +564,13 @@
         <v>22</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>71</v>
@@ -583,28 +579,25 @@
         <f aca="false">(C7-H7)^2</f>
         <v>400</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>77</v>
-      </c>
       <c r="L7" s="0" t="n">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>116</v>
-      </c>
-      <c r="N7" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>67</v>
@@ -612,14 +605,14 @@
       <c r="D8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>16</v>
+      <c r="E8" s="0" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>-4.5</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>72</v>
@@ -628,28 +621,25 @@
         <f aca="false">(C8-H8)^2</f>
         <v>25</v>
       </c>
-      <c r="J8" s="0" t="s">
-        <v>17</v>
+      <c r="J8" s="0" t="n">
+        <v>74</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="N8" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>89</v>
@@ -658,13 +648,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>69</v>
@@ -673,28 +663,25 @@
         <f aca="false">(C9-H9)^2</f>
         <v>400</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>17</v>
+      <c r="J9" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>78</v>
@@ -703,13 +690,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>73</v>
@@ -718,28 +705,25 @@
         <f aca="false">(C10-H10)^2</f>
         <v>25</v>
       </c>
-      <c r="J10" s="0" t="s">
-        <v>17</v>
+      <c r="J10" s="0" t="n">
+        <v>72</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="N10" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>84</v>
@@ -748,13 +732,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>76</v>
@@ -763,28 +747,25 @@
         <f aca="false">(C11-H11)^2</f>
         <v>64</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>17</v>
+      <c r="J11" s="0" t="n">
+        <v>78</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="N11" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C6)</f>
@@ -795,21 +776,21 @@
         <v>27.2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">AVERAGE(C7:C11)</f>
@@ -820,21 +801,21 @@
         <v>182.8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>76</v>
@@ -843,13 +824,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.2232</v>
+        <v>-4.12</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>26</v>
+        <v>-1.79</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>-0.604</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>73</v>
@@ -858,28 +839,25 @@
         <f aca="false">(C14-H14)^2</f>
         <v>9</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>32</v>
+      <c r="J14" s="0" t="n">
+        <v>85</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="N14" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>65</v>
@@ -888,13 +866,13 @@
         <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>76</v>
@@ -903,28 +881,25 @@
         <f aca="false">(C15-H15)^2</f>
         <v>121</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>33</v>
+      <c r="J15" s="0" t="n">
+        <v>58</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>78</v>
-      </c>
-      <c r="N15" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>80</v>
@@ -933,13 +908,13 @@
         <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>68</v>
@@ -948,28 +923,25 @@
         <f aca="false">(C16-H16)^2</f>
         <v>144</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>33</v>
+      <c r="J16" s="0" t="n">
+        <v>57</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="N16" s="0" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>81</v>
@@ -978,13 +950,13 @@
         <v>23</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>72</v>
@@ -993,28 +965,25 @@
         <f aca="false">(C17-H17)^2</f>
         <v>81</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>33</v>
+      <c r="J17" s="0" t="n">
+        <v>53</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="N17" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>98</v>
@@ -1023,13 +992,13 @@
         <v>25</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>72</v>
@@ -1038,28 +1007,25 @@
         <f aca="false">(C18-H18)^2</f>
         <v>676</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>33</v>
+      <c r="J18" s="0" t="n">
+        <v>59</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="N18" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>86</v>
@@ -1067,14 +1033,14 @@
       <c r="D19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>16</v>
+      <c r="E19" s="0" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2.34</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>74</v>
@@ -1083,28 +1049,25 @@
         <f aca="false">(C19-H19)^2</f>
         <v>144</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>33</v>
+      <c r="J19" s="0" t="n">
+        <v>68</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="N19" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>93</v>
@@ -1113,13 +1076,13 @@
         <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>72</v>
@@ -1128,28 +1091,25 @@
         <f aca="false">(C20-H20)^2</f>
         <v>441</v>
       </c>
-      <c r="J20" s="0" t="s">
-        <v>33</v>
+      <c r="J20" s="0" t="n">
+        <v>57</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>114</v>
-      </c>
-      <c r="N20" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>39</v>
@@ -1158,13 +1118,13 @@
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>72</v>
@@ -1173,28 +1133,25 @@
         <f aca="false">(C21-H21)^2</f>
         <v>1089</v>
       </c>
-      <c r="J21" s="0" t="s">
-        <v>33</v>
+      <c r="J21" s="0" t="n">
+        <v>41</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>52</v>
-      </c>
-      <c r="N21" s="0" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>67</v>
@@ -1203,13 +1160,13 @@
         <v>15</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>81</v>
@@ -1218,28 +1175,25 @@
         <f aca="false">(C22-H22)^2</f>
         <v>196</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>33</v>
+      <c r="J22" s="0" t="n">
+        <v>66</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="N22" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>67</v>
@@ -1248,13 +1202,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>72</v>
@@ -1263,28 +1217,25 @@
         <f aca="false">(C23-H23)^2</f>
         <v>25</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>33</v>
+      <c r="J23" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="N23" s="0" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="0" t="n">
         <f aca="false">AVERAGE(C14:C18)</f>
@@ -1295,21 +1246,21 @@
         <v>206.2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C19:C23)</f>
@@ -1320,21 +1271,21 @@
         <v>379</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>76</v>
@@ -1343,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>70</v>
@@ -1358,28 +1309,25 @@
         <f aca="false">(C26-H26)^2</f>
         <v>36</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>35</v>
+      <c r="J26" s="0" t="n">
+        <v>78</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="N26" s="0" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>76</v>
@@ -1388,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>83</v>
@@ -1403,28 +1351,25 @@
         <f aca="false">(C27-H27)^2</f>
         <v>49</v>
       </c>
-      <c r="J27" s="0" t="s">
-        <v>35</v>
+      <c r="J27" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="N27" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>76</v>
@@ -1433,13 +1378,13 @@
         <v>7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>73</v>
@@ -1448,28 +1393,25 @@
         <f aca="false">(C28-H28)^2</f>
         <v>9</v>
       </c>
-      <c r="J28" s="0" t="s">
-        <v>35</v>
+      <c r="J28" s="0" t="n">
+        <v>78</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>77</v>
-      </c>
-      <c r="N28" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>68</v>
@@ -1478,13 +1420,13 @@
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>73</v>
@@ -1493,28 +1435,25 @@
         <f aca="false">(C29-H29)^2</f>
         <v>25</v>
       </c>
-      <c r="J29" s="0" t="s">
-        <v>35</v>
+      <c r="J29" s="0" t="n">
+        <v>68</v>
       </c>
       <c r="K29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="M29" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="N29" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>69</v>
@@ -1523,13 +1462,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.2739</v>
+        <v>8.76</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.3026</v>
+        <v>9.21</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.0048</v>
+        <v>31.93</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>65</v>
@@ -1538,28 +1477,25 @@
         <f aca="false">(C30-H30)^2</f>
         <v>16</v>
       </c>
-      <c r="J30" s="0" t="s">
-        <v>36</v>
+      <c r="J30" s="0" t="n">
+        <v>69</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="N30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>78</v>
@@ -1570,25 +1506,25 @@
       <c r="H31" s="0" t="n">
         <v>103</v>
       </c>
+      <c r="J31" s="0" t="n">
+        <v>82</v>
+      </c>
       <c r="K31" s="0" t="n">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>46</v>
-      </c>
-      <c r="N31" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>111</v>
@@ -1599,25 +1535,25 @@
       <c r="H32" s="0" t="n">
         <v>102</v>
       </c>
+      <c r="J32" s="0" t="n">
+        <v>95</v>
+      </c>
       <c r="K32" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>152</v>
-      </c>
-      <c r="N32" s="0" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>90</v>
@@ -1628,25 +1564,25 @@
       <c r="H33" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="J33" s="0" t="n">
+        <v>102</v>
+      </c>
       <c r="K33" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="L33" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="L33" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="M33" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>90</v>
@@ -1657,25 +1593,25 @@
       <c r="H34" s="0" t="n">
         <v>90</v>
       </c>
+      <c r="J34" s="0" t="n">
+        <v>98</v>
+      </c>
       <c r="K34" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="L34" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="L34" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="M34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>112</v>
@@ -1683,28 +1619,37 @@
       <c r="D35" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>-1.32</v>
+      </c>
       <c r="H35" s="0" t="n">
         <v>124</v>
       </c>
+      <c r="J35" s="0" t="n">
+        <v>111</v>
+      </c>
       <c r="K35" s="0" t="n">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>127</v>
-      </c>
-      <c r="N35" s="0" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>55</v>
@@ -1715,25 +1660,25 @@
       <c r="H36" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="J36" s="0" t="n">
+        <v>64</v>
+      </c>
       <c r="K36" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="L36" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="L36" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="M36" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>71</v>
@@ -1744,25 +1689,25 @@
       <c r="H37" s="0" t="n">
         <v>68</v>
       </c>
+      <c r="J37" s="0" t="n">
+        <v>80</v>
+      </c>
       <c r="K37" s="0" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="N37" s="0" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>50</v>
@@ -1773,25 +1718,25 @@
       <c r="H38" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="J38" s="0" t="n">
+        <v>77</v>
+      </c>
       <c r="K38" s="0" t="n">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="N38" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>73</v>
@@ -1799,28 +1744,37 @@
       <c r="D39" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>-5.11</v>
+      </c>
       <c r="H39" s="0" t="n">
         <v>73</v>
       </c>
+      <c r="J39" s="0" t="n">
+        <v>77</v>
+      </c>
       <c r="K39" s="0" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>109</v>
-      </c>
-      <c r="N39" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>64</v>
@@ -1831,22 +1785,17 @@
       <c r="H40" s="0" t="n">
         <v>71</v>
       </c>
+      <c r="J40" s="0" t="n">
+        <v>50</v>
+      </c>
       <c r="K40" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="L40" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="L40" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="M40" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J1048576" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1817,7 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="C2:C6 A14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1902,34 +1851,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -1938,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>77.3</v>
@@ -1947,13 +1896,13 @@
         <v>5.1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>76</v>
@@ -1963,7 +1912,7 @@
         <v>1.68999999999999</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>76.3</v>
@@ -1983,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>77.1</v>
@@ -1992,13 +1941,13 @@
         <v>5.1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>75</v>
@@ -2008,7 +1957,7 @@
         <v>4.40999999999998</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>77.2</v>
@@ -2028,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>86.7</v>
@@ -2044,7 +1993,7 @@
         <v>94.0900000000001</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>84.6</v>
@@ -2064,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>68.5</v>
@@ -2073,13 +2022,13 @@
         <v>6.5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>75</v>
@@ -2089,7 +2038,7 @@
         <v>42.25</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>73.3</v>
@@ -2109,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>70.9</v>
@@ -2118,13 +2067,13 @@
         <v>2.2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>73</v>
@@ -2134,7 +2083,7 @@
         <v>4.40999999999998</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>68.8</v>
@@ -2154,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>89</v>
@@ -2163,13 +2112,13 @@
         <v>19</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>71</v>
@@ -2179,7 +2128,7 @@
         <v>324</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>75</v>
@@ -2196,13 +2145,13 @@
         <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>72</v>
@@ -2212,7 +2161,7 @@
         <v>9</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2220,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>70</v>
@@ -2229,13 +2178,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>69</v>
@@ -2245,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2253,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>87</v>
@@ -2262,13 +2211,13 @@
         <v>22</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>73</v>
@@ -2278,7 +2227,7 @@
         <v>196</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>83</v>
@@ -2295,13 +2244,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>76</v>
@@ -2311,15 +2260,15 @@
         <v>49</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">AVERAGE(C2:C6)</f>
@@ -2330,21 +2279,21 @@
         <v>29.37</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">AVERAGE(C7:C11)</f>
@@ -2355,13 +2304,13 @@
         <v>115.8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,7 +2318,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>73</v>
@@ -2379,7 +2328,7 @@
         <v>5329</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>67.1</v>
@@ -2399,16 +2348,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>76</v>
@@ -2418,7 +2367,7 @@
         <v>5776</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>92.3</v>
@@ -2438,16 +2387,16 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>68</v>
@@ -2457,7 +2406,7 @@
         <v>4624</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>67.1</v>
@@ -2477,16 +2426,16 @@
         <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>72</v>
@@ -2496,7 +2445,7 @@
         <v>5184</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>98.5</v>
@@ -2516,16 +2465,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>72</v>
@@ -2535,7 +2484,7 @@
         <v>5184</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>70.1</v>
@@ -2555,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>81</v>
@@ -2564,13 +2513,13 @@
         <v>9</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>79</v>
@@ -2580,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>85</v>
@@ -2597,13 +2546,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>79</v>
@@ -2613,7 +2562,7 @@
         <v>36</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,7 +2570,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>70</v>
@@ -2630,13 +2579,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>76</v>
@@ -2646,7 +2595,7 @@
         <v>36</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>64</v>
@@ -2663,13 +2612,13 @@
         <v>7</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>68</v>
@@ -2679,7 +2628,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>63</v>
@@ -2699,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>80</v>
@@ -2708,13 +2657,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>73</v>
@@ -2724,15 +2673,15 @@
         <v>49</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="0" t="e">
         <f aca="false">AVERAGE(C14:C18)</f>
@@ -2743,21 +2692,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C19:C23)</f>
@@ -2768,21 +2717,21 @@
         <v>28.2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>72.1</v>
@@ -2791,13 +2740,13 @@
         <v>4.1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>70</v>
@@ -2807,7 +2756,7 @@
         <v>4.40999999999998</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>81.2</v>
@@ -2824,10 +2773,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>85</v>
@@ -2836,13 +2785,13 @@
         <v>4.3</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>83</v>
@@ -2852,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>92.3</v>
@@ -2869,10 +2818,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>50.7</v>
@@ -2881,13 +2830,13 @@
         <v>13.7</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>73</v>
@@ -2897,7 +2846,7 @@
         <v>497.29</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>42.9</v>
@@ -2914,10 +2863,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>67</v>
@@ -2926,13 +2875,13 @@
         <v>1.9</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>73</v>
@@ -2942,7 +2891,7 @@
         <v>36</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>67</v>
@@ -2959,10 +2908,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>68.3</v>
@@ -2978,7 +2927,7 @@
         <v>10.89</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>68.3</v>
@@ -2995,57 +2944,57 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J1048576" s="0" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaute\Documents\TTT4280\TTT4280\lab\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203EBDAD-9D0D-43BB-BA4A-B42D482F093F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED25919F-320D-455E-9B25-0D7CF6CA7999}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,15 +46,6 @@
     <t>Standardavvik</t>
   </si>
   <si>
-    <t>SNR_red [dB]</t>
-  </si>
-  <si>
-    <t>SNR_green [dB]</t>
-  </si>
-  <si>
-    <t>SNR_blue [dB]</t>
-  </si>
-  <si>
     <t>Faktisk puls</t>
   </si>
   <si>
@@ -170,6 +161,15 @@
   </si>
   <si>
     <t>Transmittans_Rettpa, pulse bin 35-213</t>
+  </si>
+  <si>
+    <t>SNR_red [dBc]</t>
+  </si>
+  <si>
+    <t>SNR_green [dBc]</t>
+  </si>
+  <si>
+    <t>SNR_blue [dBc]</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,40 +573,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -615,13 +615,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -645,10 +645,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -657,13 +657,13 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>75</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>86</v>
@@ -699,13 +699,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>77</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>69</v>
@@ -741,13 +741,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>75</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -813,10 +813,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>91</v>
@@ -825,13 +825,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>71</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>67</v>
@@ -897,10 +897,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>89</v>
@@ -909,13 +909,13 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>69</v>
@@ -931,18 +931,18 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>78</v>
@@ -951,13 +951,13 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>73</v>
@@ -981,10 +981,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>84</v>
@@ -993,13 +993,13 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>76</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <f>AVERAGE(C2:C6)</f>
@@ -1037,21 +1037,21 @@
         <v>27.200000000000003</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C7:C11)</f>
@@ -1062,21 +1062,21 @@
         <v>182.8</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>76</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>65</v>
@@ -1127,13 +1127,13 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <v>76</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -1169,13 +1169,13 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>68</v>
@@ -1199,10 +1199,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>81</v>
@@ -1211,13 +1211,13 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>72</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>98</v>
@@ -1253,13 +1253,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <v>72</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>86</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>93</v>
@@ -1337,13 +1337,13 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>72</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>39</v>
@@ -1379,13 +1379,13 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>72</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>67</v>
@@ -1421,13 +1421,13 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>74</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -1463,13 +1463,13 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>72</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <f>AVERAGE(C14:C18)</f>
@@ -1507,21 +1507,21 @@
         <v>206.20000000000002</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C19:C23)</f>
@@ -1532,21 +1532,21 @@
         <v>349.6</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>76</v>
@@ -1555,13 +1555,13 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>70</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>76</v>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <v>83</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>76</v>
@@ -1639,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>73</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>68</v>
@@ -1681,13 +1681,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>73</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>69</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>78</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>111</v>
@@ -1811,10 +1811,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -1832,18 +1832,18 @@
         <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -1861,18 +1861,18 @@
         <v>18</v>
       </c>
       <c r="L34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>112</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>55</v>
@@ -1928,18 +1928,18 @@
         <v>9</v>
       </c>
       <c r="L36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>71</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>73</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>64</v>
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2104,34 +2104,34 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -2140,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>77.3</v>
@@ -2149,13 +2149,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -2165,7 +2165,7 @@
         <v>1.6899999999999926</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>76.3</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>77.099999999999994</v>
@@ -2194,13 +2194,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>75</v>
@@ -2210,7 +2210,7 @@
         <v>4.4099999999999762</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>77.2</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>86.7</v>
@@ -2246,7 +2246,7 @@
         <v>94.09000000000006</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>84.6</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>68.5</v>
@@ -2275,13 +2275,13 @@
         <v>6.5</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>75</v>
@@ -2291,7 +2291,7 @@
         <v>42.25</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>73.3</v>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>70.900000000000006</v>
@@ -2320,13 +2320,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>73</v>
@@ -2336,7 +2336,7 @@
         <v>4.4099999999999762</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>68.8</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>89</v>
@@ -2365,13 +2365,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>71</v>
@@ -2381,7 +2381,7 @@
         <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>75</v>
@@ -2398,13 +2398,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>72</v>
@@ -2414,7 +2414,7 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -2431,13 +2431,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>69</v>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>87</v>
@@ -2464,13 +2464,13 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>73</v>
@@ -2480,7 +2480,7 @@
         <v>196</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>83</v>
@@ -2497,13 +2497,13 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>76</v>
@@ -2513,15 +2513,15 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <f>AVERAGE(C2:C6)</f>
@@ -2532,21 +2532,21 @@
         <v>29.37</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C7:C11)</f>
@@ -2557,21 +2557,21 @@
         <v>115.80000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>73</v>
@@ -2581,7 +2581,7 @@
         <v>5329</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <v>67.099999999999994</v>
@@ -2601,16 +2601,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <v>76</v>
@@ -2620,7 +2620,7 @@
         <v>5776</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>92.3</v>
@@ -2640,16 +2640,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>68</v>
@@ -2659,7 +2659,7 @@
         <v>4624</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>67.099999999999994</v>
@@ -2679,16 +2679,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>72</v>
@@ -2698,7 +2698,7 @@
         <v>5184</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>98.5</v>
@@ -2718,16 +2718,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H18">
         <v>72</v>
@@ -2737,7 +2737,7 @@
         <v>5184</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>70.099999999999994</v>
@@ -2757,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>81</v>
@@ -2766,13 +2766,13 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H19">
         <v>79</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>85</v>
@@ -2799,13 +2799,13 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>79</v>
@@ -2815,7 +2815,7 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>70</v>
@@ -2832,13 +2832,13 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -2848,7 +2848,7 @@
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>64</v>
@@ -2865,13 +2865,13 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H22">
         <v>68</v>
@@ -2881,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>63</v>
@@ -2901,7 +2901,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -2910,13 +2910,13 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H23">
         <v>73</v>
@@ -2926,15 +2926,15 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" t="e">
         <f>AVERAGE(C14:C18)</f>
@@ -2945,21 +2945,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C19:C23)</f>
@@ -2970,21 +2970,21 @@
         <v>28.200000000000003</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>72.099999999999994</v>
@@ -2993,13 +2993,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H26">
         <v>70</v>
@@ -3009,7 +3009,7 @@
         <v>4.4099999999999762</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>81.2</v>
@@ -3026,10 +3026,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>85</v>
@@ -3038,13 +3038,13 @@
         <v>4.3</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H27">
         <v>83</v>
@@ -3054,7 +3054,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>92.3</v>
@@ -3071,10 +3071,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>50.7</v>
@@ -3083,13 +3083,13 @@
         <v>13.7</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H28">
         <v>73</v>
@@ -3099,7 +3099,7 @@
         <v>497.28999999999985</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>42.9</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>67</v>
@@ -3128,13 +3128,13 @@
         <v>1.9</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H29">
         <v>73</v>
@@ -3144,7 +3144,7 @@
         <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>67</v>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>68.3</v>
@@ -3180,7 +3180,7 @@
         <v>10.889999999999981</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>68.3</v>
@@ -3197,57 +3197,57 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1048576" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J1048576" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaute\Documents\TTT4280\TTT4280\lab\lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torsteinl/Documents/TTT4280/lab/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED25919F-320D-455E-9B25-0D7CF6CA7999}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6105523-C729-5A45-9AE9-54118887C661}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="malinger" sheetId="1" r:id="rId1"/>
     <sheet name="interp 16" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="60">
   <si>
     <t>Situasjon</t>
   </si>
@@ -64,9 +58,6 @@
     <t>Standardavvik_blue</t>
   </si>
   <si>
-    <t>Transmittans boks</t>
-  </si>
-  <si>
     <t>torsteinFinger1.mp4</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>SnittGaute</t>
   </si>
   <si>
-    <t>Reflektans</t>
-  </si>
-  <si>
     <t>Transmittans direkte</t>
   </si>
   <si>
@@ -163,13 +151,61 @@
     <t>Transmittans_Rettpa, pulse bin 35-213</t>
   </si>
   <si>
-    <t>SNR_red [dBc]</t>
-  </si>
-  <si>
-    <t>SNR_green [dBc]</t>
-  </si>
-  <si>
-    <t>SNR_blue [dBc]</t>
+    <t>SNR blå [dBc]</t>
+  </si>
+  <si>
+    <t>SNR grønn [dBc]</t>
+  </si>
+  <si>
+    <t>SNR rød [dBc]</t>
+  </si>
+  <si>
+    <t>Puls grønn</t>
+  </si>
+  <si>
+    <t>Standardavvik grønn</t>
+  </si>
+  <si>
+    <t>Puls blå</t>
+  </si>
+  <si>
+    <t>Standardavvik blå</t>
+  </si>
+  <si>
+    <t>Standardavvik rød</t>
+  </si>
+  <si>
+    <t>Puls rød</t>
+  </si>
+  <si>
+    <t>Differanse^2 rød</t>
+  </si>
+  <si>
+    <t>Differanse^2 grønn</t>
+  </si>
+  <si>
+    <t>Differanse^2 blå</t>
+  </si>
+  <si>
+    <t>AVGPerson1</t>
+  </si>
+  <si>
+    <t>AVGPerson2</t>
+  </si>
+  <si>
+    <t>Transmittans boks Person1</t>
+  </si>
+  <si>
+    <t>Transmittans boks Person2</t>
+  </si>
+  <si>
+    <t>Reflektans boks Person 1</t>
+  </si>
+  <si>
+    <t>Reflektans boks Person 2</t>
+  </si>
+  <si>
+    <t>AVGPerson</t>
   </si>
 </sst>
 </file>
@@ -196,12 +232,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,10 +258,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,79 +582,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="1023" width="10.375" customWidth="1"/>
-    <col min="1024" max="1025" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="1023" width="10.33203125" customWidth="1"/>
+    <col min="1024" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -615,40 +668,45 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <f>(C2-B2)^2</f>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I11" si="0">(C2-H2)^2</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>74</v>
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
+        <f>(H2-B2)^2</f>
+        <v>4</v>
+      </c>
+      <c r="M2">
         <v>67</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <f>(M2-B2)^2</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
       </c>
       <c r="C3">
         <v>72</v>
@@ -657,40 +715,45 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <f>(C3-B3)^2</f>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
+        <f>(H3-B3)^2</f>
+        <v>16</v>
+      </c>
+      <c r="M3">
         <v>106</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3">
+        <f>(M3-B3)^2</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>77</v>
       </c>
       <c r="C4">
         <v>86</v>
@@ -699,40 +762,45 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <f>(C4-B4)^2</f>
+        <v>81</v>
       </c>
       <c r="H4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="J4">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
+        <f>(H4-B4)^2</f>
+        <v>16</v>
+      </c>
+      <c r="M4">
         <v>106</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <f>(M4-B4)^2</f>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
       </c>
       <c r="C5">
         <v>69</v>
@@ -741,40 +809,45 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <f>(C5-B5)^2</f>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <f>(H5-B5)^2</f>
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>69</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5">
+        <f>(M5-B5)^2</f>
         <v>36</v>
       </c>
-      <c r="J5">
-        <v>72</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>69</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -786,37 +859,42 @@
         <v>10.75</v>
       </c>
       <c r="F6">
+        <f>(C6-B6)^2</f>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
         <v>11.54</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <f>(H6-B6)^2</f>
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>71</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
         <v>9.99</v>
       </c>
-      <c r="H6">
-        <v>73</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>70</v>
-      </c>
-      <c r="K6">
+      <c r="P6">
+        <f>(M6-B6)^2</f>
         <v>4</v>
       </c>
-      <c r="L6">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
         <v>71</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
       <c r="C7">
         <v>91</v>
@@ -825,40 +903,45 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <f>(C7-B7)^2</f>
+        <v>400</v>
       </c>
       <c r="H7">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J7">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>17</v>
-      </c>
-      <c r="L7">
+        <f>(H7-B7)^2</f>
+        <v>36</v>
+      </c>
+      <c r="M7">
         <v>116</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <f>(M7-B7)^2</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
       </c>
       <c r="C8">
         <v>67</v>
@@ -870,37 +953,42 @@
         <v>1.57</v>
       </c>
       <c r="F8">
+        <f>(C8-B8)^2</f>
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>74</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
         <v>-0.65</v>
       </c>
-      <c r="G8">
+      <c r="K8">
+        <f>(H8-B8)^2</f>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>95</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
+      </c>
+      <c r="O8">
         <v>-4.5</v>
       </c>
-      <c r="H8">
-        <v>72</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>74</v>
-      </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8">
-        <v>95</v>
-      </c>
-      <c r="M8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f>(M8-B8)^2</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
       </c>
       <c r="C9">
         <v>89</v>
@@ -909,40 +997,45 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <f>(C9-B9)^2</f>
+        <v>400</v>
       </c>
       <c r="H9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J9">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
+        <f>(H9-B9)^2</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="6"/>
       <c r="M9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>73</v>
       </c>
       <c r="C10">
         <v>78</v>
@@ -951,40 +1044,46 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>(C10-B10)^2</f>
+        <v>25</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J10">
-        <v>72</v>
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
+        <f>(H10-B10)^2</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10">
         <v>98</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <f>(M10-B10)^2</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>76</v>
       </c>
       <c r="C11">
         <v>84</v>
@@ -993,90 +1092,116 @@
         <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <f>(C11-B11)^2</f>
+        <v>64</v>
       </c>
       <c r="H11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J11">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
       <c r="K11">
-        <v>15</v>
-      </c>
-      <c r="L11">
+        <f>(H11-B11)^2</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11">
         <v>104</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11">
+        <f>(M11-B11)^2</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <f>AVERAGE(C2:C6)</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="D12">
-        <f>(1/COUNT(D2:D6))*SUM(I2:I6)</f>
+      <c r="D12" s="4">
+        <f>(1/COUNT(D2:D6))*SUM(F2:F6)</f>
         <v>27.200000000000003</v>
       </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(F2:F6)</f>
+        <v>27.2</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="4"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <f>AVERAGE(C7:C11)</f>
         <v>81.8</v>
       </c>
-      <c r="D13">
-        <f>(1/COUNT(D7:D11))*SUM(I7:I11)</f>
+      <c r="D13" s="4">
+        <f>(1/COUNT(D7:D11))*SUM(F7:F11)</f>
         <v>182.8</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <f>AVERAGE(F7:F11)</f>
+        <v>182.8</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
       </c>
       <c r="C14">
         <v>76</v>
@@ -1088,37 +1213,43 @@
         <v>-4.12</v>
       </c>
       <c r="F14">
+        <f>(C14-B14)^2</f>
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
         <v>-1.79</v>
       </c>
-      <c r="G14">
+      <c r="K14">
+        <f>(H14-B14)^2</f>
+        <v>144</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14">
+        <v>98</v>
+      </c>
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
         <v>-0.60399999999999998</v>
       </c>
-      <c r="H14">
-        <v>73</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I23" si="1">(C14-H14)^2</f>
-        <v>9</v>
-      </c>
-      <c r="J14">
-        <v>85</v>
-      </c>
-      <c r="K14">
-        <v>20</v>
-      </c>
-      <c r="L14">
-        <v>98</v>
-      </c>
-      <c r="M14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <f>(M14-B14)^2</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
       </c>
       <c r="C15">
         <v>65</v>
@@ -1127,40 +1258,46 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <f>(C15-B15)^2</f>
+        <v>121</v>
+      </c>
+      <c r="H15">
+        <v>58</v>
+      </c>
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15">
-        <v>76</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="J15">
-        <v>58</v>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>12</v>
-      </c>
-      <c r="L15">
+        <f>(H15-B15)^2</f>
+        <v>324</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15">
         <v>78</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <f>(M15-B15)^2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -1169,40 +1306,46 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <f>(C16-B16)^2</f>
+        <v>144</v>
       </c>
       <c r="H16">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <f>(H16-B16)^2</f>
+        <v>121</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16">
+        <v>97</v>
+      </c>
+      <c r="N16">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <f>(M16-B16)^2</f>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>57</v>
       </c>
-      <c r="K16">
-        <v>9</v>
-      </c>
-      <c r="L16">
-        <v>97</v>
-      </c>
-      <c r="M16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
+      <c r="B17">
+        <v>72</v>
       </c>
       <c r="C17">
         <v>81</v>
@@ -1211,40 +1354,46 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <f>(C17-B17)^2</f>
+        <v>81</v>
       </c>
       <c r="H17">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <f>(H17-B17)^2</f>
+        <v>361</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17">
+        <v>80</v>
+      </c>
+      <c r="N17">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <f>(M17-B17)^2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
         <v>72</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="J17">
-        <v>53</v>
-      </c>
-      <c r="K17">
-        <v>8</v>
-      </c>
-      <c r="L17">
-        <v>80</v>
-      </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
       </c>
       <c r="C18">
         <v>98</v>
@@ -1253,40 +1402,46 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <f>(C18-B18)^2</f>
+        <v>676</v>
+      </c>
+      <c r="H18">
+        <v>59</v>
+      </c>
+      <c r="I18">
         <v>12</v>
       </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>72</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>676</v>
-      </c>
-      <c r="J18">
-        <v>59</v>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>12</v>
-      </c>
-      <c r="L18">
+        <f>(H18-B18)^2</f>
+        <v>169</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18">
         <v>91</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18">
+        <f>(M18-B18)^2</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
       </c>
       <c r="C19">
         <v>86</v>
@@ -1298,37 +1453,43 @@
         <v>3.03</v>
       </c>
       <c r="F19">
+        <f>(C19-B19)^2</f>
+        <v>144</v>
+      </c>
+      <c r="H19">
+        <v>68</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
         <v>3.81</v>
       </c>
-      <c r="G19">
+      <c r="K19">
+        <f>(H19-B19)^2</f>
+        <v>36</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19">
+        <v>87</v>
+      </c>
+      <c r="N19">
+        <v>22</v>
+      </c>
+      <c r="O19">
         <v>2.34</v>
       </c>
-      <c r="H19">
-        <v>74</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="J19">
-        <v>68</v>
-      </c>
-      <c r="K19">
-        <v>13</v>
-      </c>
-      <c r="L19">
-        <v>87</v>
-      </c>
-      <c r="M19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f>(M19-B19)^2</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>72</v>
       </c>
       <c r="C20">
         <v>93</v>
@@ -1337,40 +1498,46 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <f>(C20-B20)^2</f>
+        <v>441</v>
       </c>
       <c r="H20">
+        <v>57</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <f>(H20-B20)^2</f>
+        <v>225</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20">
+        <v>114</v>
+      </c>
+      <c r="N20">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <f>(M20-B20)^2</f>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
         <v>72</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>441</v>
-      </c>
-      <c r="J20">
-        <v>57</v>
-      </c>
-      <c r="K20">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <v>114</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
       </c>
       <c r="C21">
         <v>39</v>
@@ -1379,40 +1546,46 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <f>(C21-B21)^2</f>
+        <v>1089</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>1089</v>
-      </c>
-      <c r="J21">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
       <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
+        <f>(H21-B21)^2</f>
+        <v>961</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21">
         <v>52</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <f>(M21-B21)^2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
       </c>
       <c r="C22">
         <v>67</v>
@@ -1421,40 +1594,46 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <f>(C22-B22)^2</f>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="J22">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
       <c r="K22">
-        <v>9</v>
-      </c>
-      <c r="L22">
+        <f>(H22-B22)^2</f>
+        <v>64</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22">
         <v>86</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <f>(M22-B22)^2</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>72</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -1463,90 +1642,116 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <f>(C23-B23)^2</f>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="J23">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
       <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23">
+        <f>(H23-B23)^2</f>
+        <v>484</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23">
         <v>96</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24">
+      <c r="O23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23">
+        <f>(M23-B23)^2</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4">
         <f>AVERAGE(C14:C18)</f>
         <v>80</v>
       </c>
-      <c r="D24">
-        <f>(1/COUNT(D14:D18))*SUM(I14:I18)</f>
+      <c r="D24" s="4">
+        <f>(1/COUNT(D14:D18))*SUM(F14:F18)</f>
         <v>206.20000000000002</v>
       </c>
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <f>AVERAGE(F14:F18)</f>
+        <v>206.2</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="4"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5">
         <f>AVERAGE(C19:C23)</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="D25">
-        <f>(1/COUNT(D19:D23))*SUM(I19:I23)</f>
+      <c r="D25" s="4">
+        <f>(1/COUNT(D19:D23))*SUM(F19:F23)</f>
         <v>349.6</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <f>AVERAGE(F19:F23)</f>
+        <v>349.6</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
       </c>
       <c r="C26">
         <v>76</v>
@@ -1555,40 +1760,46 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <f>(C26-B26)^2</f>
+        <v>36</v>
       </c>
       <c r="H26">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I26">
-        <f>(C26-H26)^2</f>
-        <v>36</v>
-      </c>
-      <c r="J26">
-        <v>78</v>
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
       <c r="K26">
-        <v>21</v>
-      </c>
-      <c r="L26">
+        <f>(H26-B26)^2</f>
+        <v>64</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26">
         <v>77</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26">
+        <f>(M26-B26)^2</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>83</v>
       </c>
       <c r="C27">
         <v>76</v>
@@ -1597,40 +1808,46 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <f>(C27-B27)^2</f>
+        <v>49</v>
       </c>
       <c r="H27">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27">
-        <f>(C27-H27)^2</f>
-        <v>49</v>
-      </c>
-      <c r="J27">
-        <v>80</v>
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
       <c r="K27">
+        <f>(H27-B27)^2</f>
         <v>9</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6"/>
+      <c r="M27">
         <v>79</v>
       </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27">
+        <f>(M27-B27)^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>73</v>
       </c>
       <c r="C28">
         <v>76</v>
@@ -1639,40 +1856,46 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <f>(C28-B28)^2</f>
+        <v>9</v>
       </c>
       <c r="H28">
+        <v>78</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <f>(H28-B28)^2</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28">
+        <v>77</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+      <c r="O28" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28">
+        <f>(M28-B28)^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
         <v>73</v>
-      </c>
-      <c r="I28">
-        <f>(C28-H28)^2</f>
-        <v>9</v>
-      </c>
-      <c r="J28">
-        <v>78</v>
-      </c>
-      <c r="K28">
-        <v>6</v>
-      </c>
-      <c r="L28">
-        <v>77</v>
-      </c>
-      <c r="M28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
       </c>
       <c r="C29">
         <v>68</v>
@@ -1681,40 +1904,46 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <f>(C29-B29)^2</f>
+        <v>25</v>
       </c>
       <c r="H29">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I29">
-        <f>(C29-H29)^2</f>
+        <v>4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <f>(H29-B29)^2</f>
         <v>25</v>
       </c>
-      <c r="J29">
+      <c r="L29" s="6"/>
+      <c r="M29">
         <v>68</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>4</v>
       </c>
-      <c r="L29">
-        <v>68</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29">
+        <f>(M29-B29)^2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>65</v>
       </c>
       <c r="C30">
         <v>69</v>
@@ -1726,338 +1955,516 @@
         <v>8.76</v>
       </c>
       <c r="F30">
+        <f>(C30-B30)^2</f>
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>69</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>9.2100000000000009</v>
       </c>
-      <c r="G30">
+      <c r="K30">
+        <f>(H30-B30)^2</f>
+        <v>16</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
         <v>31.93</v>
       </c>
-      <c r="H30">
-        <v>65</v>
-      </c>
-      <c r="I30">
-        <f>(C30-H30)^2</f>
-        <v>16</v>
-      </c>
-      <c r="J30">
-        <v>69</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="P30">
+        <f>(M30-B30)^2</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4">
+        <f>AVERAGE(F26:F30)</f>
         <v>27</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
+      <c r="G31" s="6"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>103</v>
+      </c>
+      <c r="C32">
         <v>78</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>19</v>
       </c>
-      <c r="H31">
-        <v>103</v>
-      </c>
-      <c r="J31">
+      <c r="F32">
+        <f>(C32-B32)^2</f>
+        <v>625</v>
+      </c>
+      <c r="H32">
         <v>82</v>
       </c>
-      <c r="K31">
+      <c r="I32">
         <v>22</v>
       </c>
-      <c r="L31">
+      <c r="K32">
+        <f>(H32-B32)^2</f>
+        <v>441</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32">
         <v>46</v>
       </c>
-      <c r="M31">
+      <c r="N32">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32">
+      <c r="P32">
+        <f>(M32-B32)^2</f>
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
         <v>111</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>17</v>
       </c>
-      <c r="H32">
-        <v>102</v>
-      </c>
-      <c r="J32">
+      <c r="F33">
+        <f>(C33-B33)^2</f>
+        <v>81</v>
+      </c>
+      <c r="H33">
         <v>95</v>
       </c>
-      <c r="K32">
+      <c r="I33">
         <v>25</v>
       </c>
-      <c r="L32">
+      <c r="K33">
+        <f>(H33-B33)^2</f>
+        <v>49</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33">
         <v>152</v>
       </c>
-      <c r="M32">
+      <c r="N33">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33">
-        <v>90</v>
-      </c>
-      <c r="D33">
-        <v>12</v>
-      </c>
-      <c r="H33">
+      <c r="P33">
+        <f>(M33-B33)^2</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
         <v>97</v>
-      </c>
-      <c r="J33">
-        <v>102</v>
-      </c>
-      <c r="K33">
-        <v>6</v>
-      </c>
-      <c r="L33" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
       </c>
       <c r="C34">
         <v>90</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <f>(C34-B34)^2</f>
+        <v>49</v>
       </c>
       <c r="H34">
+        <v>102</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <f>(H34-B34)^2</f>
+        <v>25</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
         <v>90</v>
       </c>
-      <c r="J34">
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <f>(C35-B35)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>98</v>
       </c>
-      <c r="K34">
+      <c r="I35">
         <v>18</v>
       </c>
-      <c r="L34" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="K35">
+        <f>(H35-B35)^2</f>
+        <v>64</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="6">
+        <v>124</v>
+      </c>
+      <c r="C36" s="6">
+        <v>112</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6</v>
+      </c>
+      <c r="E36" s="6">
+        <v>14.84</v>
+      </c>
+      <c r="F36">
+        <f>(C36-B36)^2</f>
+        <v>144</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <v>111</v>
+      </c>
+      <c r="I36" s="6">
+        <v>8</v>
+      </c>
+      <c r="J36" s="6">
+        <v>15.87</v>
+      </c>
+      <c r="K36">
+        <f>(H36-B36)^2</f>
+        <v>169</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6">
+        <v>127</v>
+      </c>
+      <c r="N36" s="6">
+        <v>19</v>
+      </c>
+      <c r="O36" s="6">
+        <v>-1.32</v>
+      </c>
+      <c r="P36">
+        <f>(M36-B36)^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4">
+        <f>AVERAGE(F32:F36)</f>
+        <v>179.8</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <f>(C38-B38)^2</f>
+        <v>289</v>
+      </c>
+      <c r="H38">
+        <v>64</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="K38">
+        <f>(H38-B38)^2</f>
+        <v>64</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <v>71</v>
+      </c>
+      <c r="D39">
         <v>16</v>
       </c>
-      <c r="C35">
-        <v>112</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>14.84</v>
-      </c>
-      <c r="F35">
-        <v>15.87</v>
-      </c>
-      <c r="G35">
-        <v>-1.32</v>
-      </c>
-      <c r="H35">
-        <v>124</v>
-      </c>
-      <c r="J35">
-        <v>111</v>
-      </c>
-      <c r="K35">
-        <v>8</v>
-      </c>
-      <c r="L35">
-        <v>127</v>
-      </c>
-      <c r="M35">
+      <c r="F39">
+        <f>(C39-B39)^2</f>
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>80</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="K39">
+        <f>(H39-B39)^2</f>
+        <v>144</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39">
+        <v>96</v>
+      </c>
+      <c r="N39">
+        <v>23</v>
+      </c>
+      <c r="P39">
+        <f>(M39-B39)^2</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <f>(C40-B40)^2</f>
+        <v>400</v>
+      </c>
+      <c r="H40">
+        <v>77</v>
+      </c>
+      <c r="I40">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36">
+      <c r="K40">
+        <f>(H40-B40)^2</f>
+        <v>49</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40">
         <v>55</v>
       </c>
-      <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="H36">
-        <v>72</v>
-      </c>
-      <c r="J36">
+      <c r="N40">
+        <v>34</v>
+      </c>
+      <c r="P40">
+        <f>(M40-B40)^2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <v>73</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>2.1</v>
+      </c>
+      <c r="F41">
+        <f>(C41-B41)^2</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>77</v>
+      </c>
+      <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <v>3.68</v>
+      </c>
+      <c r="K41">
+        <f>(H41-B41)^2</f>
+        <v>16</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41">
+        <v>109</v>
+      </c>
+      <c r="N41">
+        <v>21</v>
+      </c>
+      <c r="O41">
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="P41">
+        <f>(M41-B41)^2</f>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>71</v>
+      </c>
+      <c r="C42">
         <v>64</v>
       </c>
-      <c r="K36">
-        <v>9</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>71</v>
-      </c>
-      <c r="D37">
-        <v>16</v>
-      </c>
-      <c r="H37">
-        <v>68</v>
-      </c>
-      <c r="J37">
-        <v>80</v>
-      </c>
-      <c r="K37">
-        <v>18</v>
-      </c>
-      <c r="L37">
-        <v>96</v>
-      </c>
-      <c r="M37">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <f>(C42-B42)^2</f>
+        <v>49</v>
+      </c>
+      <c r="H42">
+        <v>50</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <f>(H42-B42)^2</f>
+        <v>441</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" t="s">
         <v>19</v>
       </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="H38">
-        <v>70</v>
-      </c>
-      <c r="J38">
-        <v>77</v>
-      </c>
-      <c r="K38">
+      <c r="N42" t="s">
         <v>19</v>
       </c>
-      <c r="L38">
-        <v>55</v>
-      </c>
-      <c r="M38">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>73</v>
-      </c>
-      <c r="D39">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>2.1</v>
-      </c>
-      <c r="F39">
-        <v>3.68</v>
-      </c>
-      <c r="G39">
-        <v>-5.1100000000000003</v>
-      </c>
-      <c r="H39">
-        <v>73</v>
-      </c>
-      <c r="J39">
-        <v>77</v>
-      </c>
-      <c r="K39">
-        <v>13</v>
-      </c>
-      <c r="L39">
-        <v>109</v>
-      </c>
-      <c r="M39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40">
-        <v>64</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-      <c r="H40">
-        <v>71</v>
-      </c>
-      <c r="J40">
-        <v>50</v>
-      </c>
-      <c r="K40">
-        <v>11</v>
-      </c>
-      <c r="L40" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" t="s">
-        <v>20</v>
-      </c>
+      <c r="P42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <f>AVERAGE(F38:F42)</f>
+        <v>149.4</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2073,24 +2480,24 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="32.125" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1"/>
-    <col min="15" max="1025" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,22 +2511,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -2135,12 +2542,12 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>77.3</v>
@@ -2149,13 +2556,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -2165,7 +2572,7 @@
         <v>1.6899999999999926</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>76.3</v>
@@ -2180,12 +2587,12 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>77.099999999999994</v>
@@ -2194,13 +2601,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>75</v>
@@ -2210,7 +2617,7 @@
         <v>4.4099999999999762</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>77.2</v>
@@ -2225,12 +2632,12 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>86.7</v>
@@ -2246,7 +2653,7 @@
         <v>94.09000000000006</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>84.6</v>
@@ -2261,12 +2668,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>68.5</v>
@@ -2275,13 +2682,13 @@
         <v>6.5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>75</v>
@@ -2291,7 +2698,7 @@
         <v>42.25</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>73.3</v>
@@ -2306,12 +2713,12 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>70.900000000000006</v>
@@ -2320,13 +2727,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>73</v>
@@ -2336,7 +2743,7 @@
         <v>4.4099999999999762</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>68.8</v>
@@ -2351,12 +2758,12 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>89</v>
@@ -2365,13 +2772,13 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>71</v>
@@ -2381,15 +2788,15 @@
         <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>75</v>
@@ -2398,13 +2805,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>72</v>
@@ -2414,15 +2821,15 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -2431,13 +2838,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>69</v>
@@ -2447,15 +2854,15 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>87</v>
@@ -2464,13 +2871,13 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>73</v>
@@ -2480,15 +2887,15 @@
         <v>196</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>83</v>
@@ -2497,13 +2904,13 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>76</v>
@@ -2513,15 +2920,15 @@
         <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <f>AVERAGE(C2:C6)</f>
@@ -2532,21 +2939,21 @@
         <v>29.37</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C7:C11)</f>
@@ -2557,21 +2964,21 @@
         <v>115.80000000000001</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>73</v>
@@ -2581,7 +2988,7 @@
         <v>5329</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>67.099999999999994</v>
@@ -2596,21 +3003,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15">
         <v>76</v>
@@ -2620,7 +3027,7 @@
         <v>5776</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K15">
         <v>92.3</v>
@@ -2635,21 +3042,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>68</v>
@@ -2659,7 +3066,7 @@
         <v>4624</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K16">
         <v>67.099999999999994</v>
@@ -2674,21 +3081,21 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17">
         <v>72</v>
@@ -2698,7 +3105,7 @@
         <v>5184</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K17">
         <v>98.5</v>
@@ -2713,21 +3120,21 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <v>72</v>
@@ -2737,7 +3144,7 @@
         <v>5184</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>70.099999999999994</v>
@@ -2752,12 +3159,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>81</v>
@@ -2766,13 +3173,13 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19">
         <v>79</v>
@@ -2782,15 +3189,15 @@
         <v>4</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>85</v>
@@ -2799,13 +3206,13 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>79</v>
@@ -2815,15 +3222,15 @@
         <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>70</v>
@@ -2832,13 +3239,13 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -2848,15 +3255,15 @@
         <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>64</v>
@@ -2865,13 +3272,13 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>68</v>
@@ -2881,7 +3288,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>63</v>
@@ -2896,12 +3303,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -2910,13 +3317,13 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>73</v>
@@ -2926,15 +3333,15 @@
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="e">
         <f>AVERAGE(C14:C18)</f>
@@ -2945,21 +3352,21 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
         <f>AVERAGE(C19:C23)</f>
@@ -2970,21 +3377,21 @@
         <v>28.200000000000003</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>72.099999999999994</v>
@@ -2993,13 +3400,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <v>70</v>
@@ -3009,7 +3416,7 @@
         <v>4.4099999999999762</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>81.2</v>
@@ -3024,12 +3431,12 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>85</v>
@@ -3038,13 +3445,13 @@
         <v>4.3</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>83</v>
@@ -3054,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>92.3</v>
@@ -3069,12 +3476,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>50.7</v>
@@ -3083,13 +3490,13 @@
         <v>13.7</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <v>73</v>
@@ -3099,7 +3506,7 @@
         <v>497.28999999999985</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
         <v>42.9</v>
@@ -3114,12 +3521,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>67</v>
@@ -3128,13 +3535,13 @@
         <v>1.9</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <v>73</v>
@@ -3144,7 +3551,7 @@
         <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>67</v>
@@ -3159,12 +3566,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>68.3</v>
@@ -3180,7 +3587,7 @@
         <v>10.889999999999981</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>68.3</v>
@@ -3195,59 +3602,59 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="1048576" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J1048576" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torsteinl/Documents/TTT4280/lab/lab4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6105523-C729-5A45-9AE9-54118887C661}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D852C39A-5DCB-524A-84FB-627DD056B004}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,10 @@
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4">
+        <f>AVERAGE(B2:B6)</f>
+        <v>75.2</v>
+      </c>
       <c r="C12" s="4">
         <f>AVERAGE(C2:C6)</f>
         <v>74.400000000000006</v>
@@ -1147,25 +1150,43 @@
         <v>27.2</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4">
+        <f>AVERAGE(H2:H6)</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I12" s="4">
+        <f>(1/COUNT(I2:I6))*SUM(K2:K6)</f>
+        <v>10.8</v>
+      </c>
       <c r="J12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4">
+        <f>AVERAGE(K2:K6)</f>
+        <v>10.8</v>
+      </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="4"/>
+      <c r="M12" s="4">
+        <f>AVERAGE(M2:M6)</f>
+        <v>83.8</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4">
+        <f>AVERAGE(P2:P6)</f>
+        <v>384.6</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <f>AVERAGE(B7:B11)</f>
+        <v>72.2</v>
+      </c>
       <c r="C13" s="4">
         <f>AVERAGE(C7:C11)</f>
         <v>81.8</v>
@@ -1182,19 +1203,34 @@
         <v>182.8</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4">
+        <f>AVERAGE(H7:H11)</f>
+        <v>74.2</v>
+      </c>
+      <c r="I13" s="4">
+        <f>(1/COUNT(I7:I11))*SUM(K7:K11)</f>
+        <v>9.2000000000000011</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <f>AVERAGE(K7:K11)</f>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <f>AVERAGE(M7:M11)</f>
+        <v>103.25</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="4"/>
+      <c r="P13" s="4">
+        <f>AVERAGE(P7:P11)</f>
+        <v>990.75</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1680,7 +1716,10 @@
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4">
+        <f>AVERAGE(B14:B18)</f>
+        <v>72.2</v>
+      </c>
       <c r="C24" s="4">
         <f>AVERAGE(C14:C18)</f>
         <v>80</v>
@@ -1697,25 +1736,43 @@
         <v>206.2</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4">
+        <f>AVERAGE(H14:H18)</f>
+        <v>62.4</v>
+      </c>
+      <c r="I24" s="4">
+        <f>(1/COUNT(I14:I18))*SUM(K14:K18)</f>
+        <v>223.8</v>
+      </c>
       <c r="J24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4">
+        <f>AVERAGE(K14:K18)</f>
+        <v>223.8</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="4">
+        <f>AVERAGE(M14:M18)</f>
+        <v>88.8</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4">
+        <f>AVERAGE(P14:P18)</f>
+        <v>379</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4">
+        <f>AVERAGE(B19:B23)</f>
+        <v>72.8</v>
+      </c>
       <c r="C25" s="5">
         <f>AVERAGE(C19:C23)</f>
         <v>70.400000000000006</v>
@@ -1732,19 +1789,34 @@
         <v>349.6</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="H25" s="4">
+        <f>AVERAGE(H19:H23)</f>
+        <v>56.4</v>
+      </c>
+      <c r="I25" s="4">
+        <f>(1/COUNT(I19:I23))*SUM(K19:K23)</f>
+        <v>354</v>
+      </c>
       <c r="J25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4">
+        <f>AVERAGE(K15:K19)</f>
+        <v>202.2</v>
+      </c>
       <c r="L25" s="6"/>
-      <c r="M25" s="4"/>
+      <c r="M25" s="4">
+        <f>AVERAGE(M19:M23)</f>
+        <v>87</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="4"/>
+      <c r="P25" s="4">
+        <f>AVERAGE(P15:P19)</f>
+        <v>287.8</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1990,24 +2062,48 @@
       <c r="A31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <f>AVERAGE(B26:B30)</f>
+        <v>72.8</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4">
+        <f>(1/COUNT(D26:D30))*SUM(F26:F30)</f>
+        <v>27</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4">
         <f>AVERAGE(F26:F30)</f>
         <v>27</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4">
+        <f>AVERAGE(H26:H30)</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I31" s="4">
+        <f>(1/COUNT(I26:I30))*SUM(K26:K30)</f>
+        <v>27.8</v>
+      </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="4">
+        <f>AVERAGE(K26:K30)</f>
+        <v>27.8</v>
+      </c>
       <c r="L31" s="6"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="M31" s="4">
+        <f>AVERAGE(M26:M30)</f>
+        <v>68.2</v>
+      </c>
+      <c r="N31" s="4">
+        <f>(1/COUNT(N26:N30))*SUM(P26:P30)</f>
+        <v>146.20000000000002</v>
+      </c>
       <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="P31" s="4">
+        <f>AVERAGE(P26:P30)</f>
+        <v>146.19999999999999</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2216,24 +2312,48 @@
       <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <f>AVERAGE(B32:B36)</f>
+        <v>103.2</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4">
+        <f>(1/COUNT(D32:D36))*SUM(F32:F36)</f>
+        <v>179.8</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <f>AVERAGE(F32:F36)</f>
         <v>179.8</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4">
+        <f>AVERAGE(H32:H36)</f>
+        <v>97.6</v>
+      </c>
+      <c r="I37" s="4">
+        <f>(1/COUNT(I32:I36))*SUM(K32:K36)</f>
+        <v>149.6</v>
+      </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="4">
+        <f>AVERAGE(K32:K36)</f>
+        <v>149.6</v>
+      </c>
       <c r="L37" s="6"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="4">
+        <f>AVERAGE(M32:M36)</f>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="N37" s="4">
+        <f>(1/COUNT(N32:N36))*SUM(P32:P36)</f>
+        <v>1919.3333333333333</v>
+      </c>
       <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
+      <c r="P37" s="4">
+        <f>AVERAGE(P32:P36)</f>
+        <v>1919.3333333333333</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -2441,24 +2561,48 @@
       <c r="A43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4">
+        <f>AVERAGE(B38:B42)</f>
+        <v>70.8</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4">
+        <f>(1/COUNT(D38:D42))*SUM(F38:F42)</f>
+        <v>149.4</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
         <f>AVERAGE(F38:F42)</f>
         <v>149.4</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="4">
+        <f>AVERAGE(H38:H42)</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I43" s="4">
+        <f>(1/COUNT(I38:I42))*SUM(K38:K42)</f>
+        <v>142.80000000000001</v>
+      </c>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="4">
+        <f>AVERAGE(K38:K42)</f>
+        <v>142.80000000000001</v>
+      </c>
       <c r="L43" s="6"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="4">
+        <f>AVERAGE(M38:M42)</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="N43" s="4">
+        <f>(1/COUNT(N38:N42))*SUM(P38:P42)</f>
+        <v>795.33333333333326</v>
+      </c>
       <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
+      <c r="P43" s="4">
+        <f>AVERAGE(P38:P42)</f>
+        <v>596.5</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="L44" s="6"/>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torsteinl/Documents/TTT4280/lab/lab4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaute\Documents\TTT4280\lab\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D852C39A-5DCB-524A-84FB-627DD056B004}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2DAE7A-3EBC-4B7E-86AC-889FC53CBFC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="24600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="malinger" sheetId="1" r:id="rId1"/>
-    <sheet name="interp 16" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="green" sheetId="3" r:id="rId2"/>
+    <sheet name="blue" sheetId="4" r:id="rId3"/>
+    <sheet name="interp 16" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="62">
   <si>
     <t>Situasjon</t>
   </si>
@@ -172,15 +180,9 @@
     <t>Standardavvik blå</t>
   </si>
   <si>
-    <t>Standardavvik rød</t>
-  </si>
-  <si>
     <t>Puls rød</t>
   </si>
   <si>
-    <t>Differanse^2 rød</t>
-  </si>
-  <si>
     <t>Differanse^2 grønn</t>
   </si>
   <si>
@@ -206,6 +208,18 @@
   </si>
   <si>
     <t>AVGPerson</t>
+  </si>
+  <si>
+    <t>Differanse$^2$ rød</t>
+  </si>
+  <si>
+    <t>Standard-avvik grønn</t>
+  </si>
+  <si>
+    <t>Standard-avvik rød</t>
+  </si>
+  <si>
+    <t>Standard-avvik blå</t>
   </si>
 </sst>
 </file>
@@ -258,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -267,7 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,7 +299,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,20 +595,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
@@ -610,7 +623,7 @@
     <col min="1024" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,16 +631,16 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>44</v>
@@ -639,7 +652,7 @@
         <v>42</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>46</v>
@@ -651,12 +664,12 @@
         <v>41</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2">
         <v>76</v>
@@ -671,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <f>(C2-B2)^2</f>
+        <f t="shared" ref="F2:F11" si="0">(C2-B2)^2</f>
         <v>1</v>
       </c>
       <c r="H2">
@@ -684,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="K2">
-        <f>(H2-B2)^2</f>
+        <f t="shared" ref="K2:K11" si="1">(H2-B2)^2</f>
         <v>4</v>
       </c>
       <c r="M2">
@@ -697,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="P2">
-        <f>(M2-B2)^2</f>
+        <f t="shared" ref="P2:P8" si="2">(M2-B2)^2</f>
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -718,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <f>(C3-B3)^2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H3">
@@ -731,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="K3">
-        <f>(H3-B3)^2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M3">
@@ -744,13 +757,13 @@
         <v>11</v>
       </c>
       <c r="P3">
-        <f>(M3-B3)^2</f>
+        <f t="shared" si="2"/>
         <v>961</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>77</v>
@@ -765,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="F4">
-        <f>(C4-B4)^2</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="H4">
@@ -778,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <f>(H4-B4)^2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M4">
@@ -791,13 +804,13 @@
         <v>11</v>
       </c>
       <c r="P4">
-        <f>(M4-B4)^2</f>
+        <f t="shared" si="2"/>
         <v>841</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -812,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <f>(C5-B5)^2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="H5">
@@ -825,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="K5">
-        <f>(H5-B5)^2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M5">
@@ -838,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="P5">
-        <f>(M5-B5)^2</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>73</v>
@@ -859,7 +872,7 @@
         <v>10.75</v>
       </c>
       <c r="F6">
-        <f>(C6-B6)^2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H6">
@@ -872,7 +885,7 @@
         <v>11.54</v>
       </c>
       <c r="K6">
-        <f>(H6-B6)^2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="M6">
@@ -885,13 +898,13 @@
         <v>9.99</v>
       </c>
       <c r="P6">
-        <f>(M6-B6)^2</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -906,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <f>(C7-B7)^2</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="H7">
@@ -919,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="K7">
-        <f>(H7-B7)^2</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M7">
@@ -932,13 +945,13 @@
         <v>11</v>
       </c>
       <c r="P7">
-        <f>(M7-B7)^2</f>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -953,7 +966,7 @@
         <v>1.57</v>
       </c>
       <c r="F8">
-        <f>(C8-B8)^2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H8">
@@ -966,7 +979,7 @@
         <v>-0.65</v>
       </c>
       <c r="K8">
-        <f>(H8-B8)^2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M8">
@@ -979,13 +992,13 @@
         <v>-4.5</v>
       </c>
       <c r="P8">
-        <f>(M8-B8)^2</f>
+        <f t="shared" si="2"/>
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>69</v>
@@ -1000,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <f>(C9-B9)^2</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="H9">
@@ -1013,10 +1026,9 @@
         <v>11</v>
       </c>
       <c r="K9">
-        <f>(H9-B9)^2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L9" s="6"/>
       <c r="M9" t="s">
         <v>19</v>
       </c>
@@ -1030,9 +1042,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>73</v>
@@ -1047,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <f>(C10-B10)^2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H10">
@@ -1060,10 +1072,9 @@
         <v>11</v>
       </c>
       <c r="K10">
-        <f>(H10-B10)^2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="6"/>
       <c r="M10">
         <v>98</v>
       </c>
@@ -1078,9 +1089,9 @@
         <v>625</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>76</v>
@@ -1095,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <f>(C11-B11)^2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="H11">
@@ -1108,10 +1119,9 @@
         <v>11</v>
       </c>
       <c r="K11">
-        <f>(H11-B11)^2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L11" s="6"/>
       <c r="M11">
         <v>104</v>
       </c>
@@ -1126,9 +1136,9 @@
         <v>784</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B2:B6)</f>
@@ -1149,7 +1159,6 @@
         <f>AVERAGE(F2:F6)</f>
         <v>27.2</v>
       </c>
-      <c r="G12" s="6"/>
       <c r="H12" s="4">
         <f>AVERAGE(H2:H6)</f>
         <v>73.599999999999994</v>
@@ -1165,12 +1174,14 @@
         <f>AVERAGE(K2:K6)</f>
         <v>10.8</v>
       </c>
-      <c r="L12" s="6"/>
       <c r="M12" s="4">
         <f>AVERAGE(M2:M6)</f>
         <v>83.8</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <f>(1/COUNT(N2:N6))*SUM(P2:P6)</f>
+        <v>384.6</v>
+      </c>
       <c r="O12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1179,9 +1190,9 @@
         <v>384.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4">
         <f>AVERAGE(B7:B11)</f>
@@ -1202,7 +1213,6 @@
         <f>AVERAGE(F7:F11)</f>
         <v>182.8</v>
       </c>
-      <c r="G13" s="6"/>
       <c r="H13" s="4">
         <f>AVERAGE(H7:H11)</f>
         <v>74.2</v>
@@ -1218,12 +1228,14 @@
         <f>AVERAGE(K7:K11)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="L13" s="6"/>
       <c r="M13" s="4">
         <f>AVERAGE(M7:M11)</f>
         <v>103.25</v>
       </c>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <f>(1/COUNT(N7:N11))*SUM(P7:P11)</f>
+        <v>990.75</v>
+      </c>
       <c r="O13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1232,9 +1244,9 @@
         <v>990.75</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>73</v>
@@ -1249,7 +1261,7 @@
         <v>-4.12</v>
       </c>
       <c r="F14">
-        <f>(C14-B14)^2</f>
+        <f t="shared" ref="F14:F23" si="3">(C14-B14)^2</f>
         <v>9</v>
       </c>
       <c r="H14">
@@ -1262,10 +1274,9 @@
         <v>-1.79</v>
       </c>
       <c r="K14">
-        <f>(H14-B14)^2</f>
+        <f t="shared" ref="K14:K23" si="4">(H14-B14)^2</f>
         <v>144</v>
       </c>
-      <c r="L14" s="6"/>
       <c r="M14">
         <v>98</v>
       </c>
@@ -1276,13 +1287,13 @@
         <v>-0.60399999999999998</v>
       </c>
       <c r="P14">
-        <f>(M14-B14)^2</f>
+        <f t="shared" ref="P14:P23" si="5">(M14-B14)^2</f>
         <v>625</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>76</v>
@@ -1297,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <f>(C15-B15)^2</f>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="H15">
@@ -1310,10 +1321,9 @@
         <v>11</v>
       </c>
       <c r="K15">
-        <f>(H15-B15)^2</f>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
-      <c r="L15" s="6"/>
       <c r="M15">
         <v>78</v>
       </c>
@@ -1324,13 +1334,13 @@
         <v>11</v>
       </c>
       <c r="P15">
-        <f>(M15-B15)^2</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>68</v>
@@ -1345,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <f>(C16-B16)^2</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="H16">
@@ -1358,10 +1368,9 @@
         <v>11</v>
       </c>
       <c r="K16">
-        <f>(H16-B16)^2</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
-      <c r="L16" s="6"/>
       <c r="M16">
         <v>97</v>
       </c>
@@ -1372,13 +1381,13 @@
         <v>11</v>
       </c>
       <c r="P16">
-        <f>(M16-B16)^2</f>
+        <f t="shared" si="5"/>
         <v>841</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>72</v>
@@ -1393,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <f>(C17-B17)^2</f>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="H17">
@@ -1406,10 +1415,9 @@
         <v>11</v>
       </c>
       <c r="K17">
-        <f>(H17-B17)^2</f>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
-      <c r="L17" s="6"/>
       <c r="M17">
         <v>80</v>
       </c>
@@ -1420,13 +1428,13 @@
         <v>11</v>
       </c>
       <c r="P17">
-        <f>(M17-B17)^2</f>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>72</v>
@@ -1441,7 +1449,7 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <f>(C18-B18)^2</f>
+        <f t="shared" si="3"/>
         <v>676</v>
       </c>
       <c r="H18">
@@ -1454,10 +1462,9 @@
         <v>11</v>
       </c>
       <c r="K18">
-        <f>(H18-B18)^2</f>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="L18" s="6"/>
       <c r="M18">
         <v>91</v>
       </c>
@@ -1468,13 +1475,13 @@
         <v>11</v>
       </c>
       <c r="P18">
-        <f>(M18-B18)^2</f>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>74</v>
@@ -1489,7 +1496,7 @@
         <v>3.03</v>
       </c>
       <c r="F19">
-        <f>(C19-B19)^2</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="H19">
@@ -1502,10 +1509,9 @@
         <v>3.81</v>
       </c>
       <c r="K19">
-        <f>(H19-B19)^2</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="L19" s="6"/>
       <c r="M19">
         <v>87</v>
       </c>
@@ -1516,13 +1522,13 @@
         <v>2.34</v>
       </c>
       <c r="P19">
-        <f>(M19-B19)^2</f>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>72</v>
@@ -1537,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <f>(C20-B20)^2</f>
+        <f t="shared" si="3"/>
         <v>441</v>
       </c>
       <c r="H20">
@@ -1550,10 +1556,9 @@
         <v>11</v>
       </c>
       <c r="K20">
-        <f>(H20-B20)^2</f>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
-      <c r="L20" s="6"/>
       <c r="M20">
         <v>114</v>
       </c>
@@ -1564,13 +1569,13 @@
         <v>11</v>
       </c>
       <c r="P20">
-        <f>(M20-B20)^2</f>
+        <f t="shared" si="5"/>
         <v>1764</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -1585,7 +1590,7 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <f>(C21-B21)^2</f>
+        <f t="shared" si="3"/>
         <v>1089</v>
       </c>
       <c r="H21">
@@ -1598,10 +1603,9 @@
         <v>11</v>
       </c>
       <c r="K21">
-        <f>(H21-B21)^2</f>
+        <f t="shared" si="4"/>
         <v>961</v>
       </c>
-      <c r="L21" s="6"/>
       <c r="M21">
         <v>52</v>
       </c>
@@ -1612,13 +1616,13 @@
         <v>11</v>
       </c>
       <c r="P21">
-        <f>(M21-B21)^2</f>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>74</v>
@@ -1633,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <f>(C22-B22)^2</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="H22">
@@ -1646,10 +1650,9 @@
         <v>11</v>
       </c>
       <c r="K22">
-        <f>(H22-B22)^2</f>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="L22" s="6"/>
       <c r="M22">
         <v>86</v>
       </c>
@@ -1660,13 +1663,13 @@
         <v>11</v>
       </c>
       <c r="P22">
-        <f>(M22-B22)^2</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -1681,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="F23">
-        <f>(C23-B23)^2</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="H23">
@@ -1694,10 +1697,9 @@
         <v>11</v>
       </c>
       <c r="K23">
-        <f>(H23-B23)^2</f>
+        <f t="shared" si="4"/>
         <v>484</v>
       </c>
-      <c r="L23" s="6"/>
       <c r="M23">
         <v>96</v>
       </c>
@@ -1708,13 +1710,13 @@
         <v>11</v>
       </c>
       <c r="P23">
-        <f>(M23-B23)^2</f>
+        <f t="shared" si="5"/>
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4">
         <f>AVERAGE(B14:B18)</f>
@@ -1735,7 +1737,6 @@
         <f>AVERAGE(F14:F18)</f>
         <v>206.2</v>
       </c>
-      <c r="G24" s="6"/>
       <c r="H24" s="4">
         <f>AVERAGE(H14:H18)</f>
         <v>62.4</v>
@@ -1751,12 +1752,14 @@
         <f>AVERAGE(K14:K18)</f>
         <v>223.8</v>
       </c>
-      <c r="L24" s="6"/>
       <c r="M24" s="4">
         <f>AVERAGE(M14:M18)</f>
         <v>88.8</v>
       </c>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4">
+        <f>(1/COUNT(N14:N18))*SUM(P14:P18)</f>
+        <v>379</v>
+      </c>
       <c r="O24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1765,9 +1768,9 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="4">
         <f>AVERAGE(B19:B23)</f>
@@ -1788,7 +1791,6 @@
         <f>AVERAGE(F19:F23)</f>
         <v>349.6</v>
       </c>
-      <c r="G25" s="6"/>
       <c r="H25" s="4">
         <f>AVERAGE(H19:H23)</f>
         <v>56.4</v>
@@ -1804,21 +1806,23 @@
         <f>AVERAGE(K15:K19)</f>
         <v>202.2</v>
       </c>
-      <c r="L25" s="6"/>
       <c r="M25" s="4">
         <f>AVERAGE(M19:M23)</f>
         <v>87</v>
       </c>
-      <c r="N25" s="4"/>
+      <c r="N25" s="4">
+        <f>(1/COUNT(N19:N23))*SUM(P19:P23)</f>
+        <v>610.6</v>
+      </c>
       <c r="O25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P25" s="4">
-        <f>AVERAGE(P15:P19)</f>
-        <v>287.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <f>AVERAGE(P19:P23)</f>
+        <v>610.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1851,7 +1855,6 @@
         <f>(H26-B26)^2</f>
         <v>64</v>
       </c>
-      <c r="L26" s="6"/>
       <c r="M26">
         <v>77</v>
       </c>
@@ -1866,7 +1869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1902,6 @@
         <f>(H27-B27)^2</f>
         <v>9</v>
       </c>
-      <c r="L27" s="6"/>
       <c r="M27">
         <v>79</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1947,7 +1949,6 @@
         <f>(H28-B28)^2</f>
         <v>25</v>
       </c>
-      <c r="L28" s="6"/>
       <c r="M28">
         <v>77</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1995,7 +1996,6 @@
         <f>(H29-B29)^2</f>
         <v>25</v>
       </c>
-      <c r="L29" s="6"/>
       <c r="M29">
         <v>68</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2043,6 @@
         <f>(H30-B30)^2</f>
         <v>16</v>
       </c>
-      <c r="L30" s="6"/>
       <c r="M30">
         <v>40</v>
       </c>
@@ -2058,15 +2057,18 @@
         <v>625</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="4">
         <f>AVERAGE(B26:B30)</f>
         <v>72.8</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="4">
+        <f>AVERAGE(C25:C29)</f>
+        <v>73.28</v>
+      </c>
       <c r="D31" s="4">
         <f>(1/COUNT(D26:D30))*SUM(F26:F30)</f>
         <v>27</v>
@@ -2076,7 +2078,6 @@
         <f>AVERAGE(F26:F30)</f>
         <v>27</v>
       </c>
-      <c r="G31" s="6"/>
       <c r="H31" s="4">
         <f>AVERAGE(H26:H30)</f>
         <v>74.599999999999994</v>
@@ -2090,7 +2091,6 @@
         <f>AVERAGE(K26:K30)</f>
         <v>27.8</v>
       </c>
-      <c r="L31" s="6"/>
       <c r="M31" s="4">
         <f>AVERAGE(M26:M30)</f>
         <v>68.2</v>
@@ -2105,7 +2105,7 @@
         <v>146.19999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2132,7 +2132,6 @@
         <f>(H32-B32)^2</f>
         <v>441</v>
       </c>
-      <c r="L32" s="6"/>
       <c r="M32">
         <v>46</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -2171,7 +2170,6 @@
         <f>(H33-B33)^2</f>
         <v>49</v>
       </c>
-      <c r="L33" s="6"/>
       <c r="M33">
         <v>152</v>
       </c>
@@ -2183,7 +2181,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -2210,7 +2208,6 @@
         <f>(H34-B34)^2</f>
         <v>25</v>
       </c>
-      <c r="L34" s="6"/>
       <c r="M34" t="s">
         <v>19</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2248,7 +2245,6 @@
         <f>(H35-B35)^2</f>
         <v>64</v>
       </c>
-      <c r="L35" s="6"/>
       <c r="M35" t="s">
         <v>26</v>
       </c>
@@ -2259,48 +2255,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36">
         <v>124</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>112</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36">
         <v>14.84</v>
       </c>
       <c r="F36">
         <f>(C36-B36)^2</f>
         <v>144</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6">
+      <c r="H36">
         <v>111</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36">
         <v>8</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36">
         <v>15.87</v>
       </c>
       <c r="K36">
         <f>(H36-B36)^2</f>
         <v>169</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6">
+      <c r="M36">
         <v>127</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36">
         <v>19</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36">
         <v>-1.32</v>
       </c>
       <c r="P36">
@@ -2308,15 +2302,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="4">
         <f>AVERAGE(B32:B36)</f>
         <v>103.2</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="4">
+        <f>AVERAGE(C31:C35)</f>
+        <v>88.455999999999989</v>
+      </c>
       <c r="D37" s="4">
         <f>(1/COUNT(D32:D36))*SUM(F32:F36)</f>
         <v>179.8</v>
@@ -2326,7 +2323,6 @@
         <f>AVERAGE(F32:F36)</f>
         <v>179.8</v>
       </c>
-      <c r="G37" s="6"/>
       <c r="H37" s="4">
         <f>AVERAGE(H32:H36)</f>
         <v>97.6</v>
@@ -2340,7 +2336,6 @@
         <f>AVERAGE(K32:K36)</f>
         <v>149.6</v>
       </c>
-      <c r="L37" s="6"/>
       <c r="M37" s="4">
         <f>AVERAGE(M32:M36)</f>
         <v>108.33333333333333</v>
@@ -2355,7 +2350,7 @@
         <v>1919.3333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -2382,7 +2377,6 @@
         <f>(H38-B38)^2</f>
         <v>64</v>
       </c>
-      <c r="L38" s="6"/>
       <c r="M38" t="s">
         <v>19</v>
       </c>
@@ -2393,7 +2387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -2420,7 +2414,6 @@
         <f>(H39-B39)^2</f>
         <v>144</v>
       </c>
-      <c r="L39" s="6"/>
       <c r="M39">
         <v>96</v>
       </c>
@@ -2432,7 +2425,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -2459,7 +2452,6 @@
         <f>(H40-B40)^2</f>
         <v>49</v>
       </c>
-      <c r="L40" s="6"/>
       <c r="M40">
         <v>55</v>
       </c>
@@ -2471,7 +2463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -2504,7 +2496,6 @@
         <f>(H41-B41)^2</f>
         <v>16</v>
       </c>
-      <c r="L41" s="6"/>
       <c r="M41">
         <v>109</v>
       </c>
@@ -2519,7 +2510,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -2546,7 +2537,6 @@
         <f>(H42-B42)^2</f>
         <v>441</v>
       </c>
-      <c r="L42" s="6"/>
       <c r="M42" t="s">
         <v>19</v>
       </c>
@@ -2557,15 +2547,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="4">
         <f>AVERAGE(B38:B42)</f>
         <v>70.8</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="4">
+        <f>AVERAGE(C37:C41)</f>
+        <v>67.491200000000006</v>
+      </c>
       <c r="D43" s="4">
         <f>(1/COUNT(D38:D42))*SUM(F38:F42)</f>
         <v>149.4</v>
@@ -2575,7 +2568,6 @@
         <f>AVERAGE(F38:F42)</f>
         <v>149.4</v>
       </c>
-      <c r="G43" s="6"/>
       <c r="H43" s="4">
         <f>AVERAGE(H38:H42)</f>
         <v>69.599999999999994</v>
@@ -2589,7 +2581,6 @@
         <f>AVERAGE(K38:K42)</f>
         <v>142.80000000000001</v>
       </c>
-      <c r="L43" s="6"/>
       <c r="M43" s="4">
         <f>AVERAGE(M38:M42)</f>
         <v>86.666666666666671</v>
@@ -2603,12 +2594,6 @@
         <f>AVERAGE(P38:P42)</f>
         <v>596.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2617,6 +2602,2100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2DD756-A1DF-4378-AA5F-60EF6EB1CB4C}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <f>malinger!H2</f>
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <f>malinger!I2</f>
+        <v>8</v>
+      </c>
+      <c r="E2" t="str">
+        <f>malinger!J2</f>
+        <v>-</v>
+      </c>
+      <c r="F2">
+        <f>malinger!K2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <f>malinger!H3</f>
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <f>malinger!I3</f>
+        <v>11</v>
+      </c>
+      <c r="E3" t="str">
+        <f>malinger!J3</f>
+        <v>-</v>
+      </c>
+      <c r="F3">
+        <f>malinger!K3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <f>malinger!H4</f>
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <f>malinger!I4</f>
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <f>malinger!J4</f>
+        <v>-</v>
+      </c>
+      <c r="F4">
+        <f>malinger!K4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <f>malinger!H5</f>
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <f>malinger!I5</f>
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f>malinger!J5</f>
+        <v>-</v>
+      </c>
+      <c r="F5">
+        <f>malinger!K5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <f>malinger!H6</f>
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <f>malinger!I6</f>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>malinger!J6</f>
+        <v>11.54</v>
+      </c>
+      <c r="F6">
+        <f>malinger!K6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <f>malinger!H7</f>
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <f>malinger!I7</f>
+        <v>17</v>
+      </c>
+      <c r="E7" t="str">
+        <f>malinger!J7</f>
+        <v>-</v>
+      </c>
+      <c r="F7">
+        <f>malinger!K7</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <f>malinger!H8</f>
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <f>malinger!I8</f>
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <f>malinger!J8</f>
+        <v>-0.65</v>
+      </c>
+      <c r="F8">
+        <f>malinger!K8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <f>malinger!H9</f>
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <f>malinger!I9</f>
+        <v>15</v>
+      </c>
+      <c r="E9" t="str">
+        <f>malinger!J9</f>
+        <v>-</v>
+      </c>
+      <c r="F9">
+        <f>malinger!K9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <f>malinger!H10</f>
+        <v>72</v>
+      </c>
+      <c r="D10">
+        <f>malinger!I10</f>
+        <v>11</v>
+      </c>
+      <c r="E10" t="str">
+        <f>malinger!J10</f>
+        <v>-</v>
+      </c>
+      <c r="F10">
+        <f>malinger!K10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <f>malinger!H11</f>
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <f>malinger!I11</f>
+        <v>15</v>
+      </c>
+      <c r="E11" t="str">
+        <f>malinger!J11</f>
+        <v>-</v>
+      </c>
+      <c r="F11">
+        <f>malinger!K11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="C12">
+        <f>malinger!H12</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D12">
+        <f>malinger!I12</f>
+        <v>10.8</v>
+      </c>
+      <c r="E12" t="str">
+        <f>malinger!J12</f>
+        <v>-</v>
+      </c>
+      <c r="F12">
+        <f>malinger!K12</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4">
+        <v>72.2</v>
+      </c>
+      <c r="C13">
+        <f>malinger!H13</f>
+        <v>74.2</v>
+      </c>
+      <c r="D13">
+        <f>malinger!I13</f>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="E13" t="str">
+        <f>malinger!J13</f>
+        <v>-</v>
+      </c>
+      <c r="F13">
+        <f>malinger!K13</f>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <f>malinger!H14</f>
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <f>malinger!I14</f>
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f>malinger!J14</f>
+        <v>-1.79</v>
+      </c>
+      <c r="F14">
+        <f>malinger!K14</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <f>malinger!H15</f>
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <f>malinger!I15</f>
+        <v>12</v>
+      </c>
+      <c r="E15" t="str">
+        <f>malinger!J15</f>
+        <v>-</v>
+      </c>
+      <c r="F15">
+        <f>malinger!K15</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <f>malinger!H16</f>
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f>malinger!I16</f>
+        <v>9</v>
+      </c>
+      <c r="E16" t="str">
+        <f>malinger!J16</f>
+        <v>-</v>
+      </c>
+      <c r="F16">
+        <f>malinger!K16</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <f>malinger!H17</f>
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <f>malinger!I17</f>
+        <v>8</v>
+      </c>
+      <c r="E17" t="str">
+        <f>malinger!J17</f>
+        <v>-</v>
+      </c>
+      <c r="F17">
+        <f>malinger!K17</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <f>malinger!H18</f>
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <f>malinger!I18</f>
+        <v>12</v>
+      </c>
+      <c r="E18" t="str">
+        <f>malinger!J18</f>
+        <v>-</v>
+      </c>
+      <c r="F18">
+        <f>malinger!K18</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <f>malinger!H19</f>
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <f>malinger!I19</f>
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f>malinger!J19</f>
+        <v>3.81</v>
+      </c>
+      <c r="F19">
+        <f>malinger!K19</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <f>malinger!H20</f>
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <f>malinger!I20</f>
+        <v>9</v>
+      </c>
+      <c r="E20" t="str">
+        <f>malinger!J20</f>
+        <v>-</v>
+      </c>
+      <c r="F20">
+        <f>malinger!K20</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <f>malinger!H21</f>
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <f>malinger!I21</f>
+        <v>2</v>
+      </c>
+      <c r="E21" t="str">
+        <f>malinger!J21</f>
+        <v>-</v>
+      </c>
+      <c r="F21">
+        <f>malinger!K21</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <f>malinger!H22</f>
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <f>malinger!I22</f>
+        <v>9</v>
+      </c>
+      <c r="E22" t="str">
+        <f>malinger!J22</f>
+        <v>-</v>
+      </c>
+      <c r="F22">
+        <f>malinger!K22</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>72</v>
+      </c>
+      <c r="C23">
+        <f>malinger!H23</f>
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <f>malinger!I23</f>
+        <v>6</v>
+      </c>
+      <c r="E23" t="str">
+        <f>malinger!J23</f>
+        <v>-</v>
+      </c>
+      <c r="F23">
+        <f>malinger!K23</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4">
+        <v>72.2</v>
+      </c>
+      <c r="C24">
+        <f>malinger!H24</f>
+        <v>62.4</v>
+      </c>
+      <c r="D24">
+        <f>malinger!I24</f>
+        <v>223.8</v>
+      </c>
+      <c r="E24" t="str">
+        <f>malinger!J24</f>
+        <v>-</v>
+      </c>
+      <c r="F24">
+        <f>malinger!K24</f>
+        <v>223.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="C25">
+        <f>malinger!H25</f>
+        <v>56.4</v>
+      </c>
+      <c r="D25">
+        <f>malinger!I25</f>
+        <v>354</v>
+      </c>
+      <c r="E25" t="str">
+        <f>malinger!J25</f>
+        <v>-</v>
+      </c>
+      <c r="F25">
+        <f>malinger!K25</f>
+        <v>202.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <f>malinger!H26</f>
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <f>malinger!I26</f>
+        <v>21</v>
+      </c>
+      <c r="E26" t="str">
+        <f>malinger!J26</f>
+        <v>-</v>
+      </c>
+      <c r="F26">
+        <f>malinger!K26</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>83</v>
+      </c>
+      <c r="C27">
+        <f>malinger!H27</f>
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <f>malinger!I27</f>
+        <v>9</v>
+      </c>
+      <c r="E27" t="str">
+        <f>malinger!J27</f>
+        <v>-</v>
+      </c>
+      <c r="F27">
+        <f>malinger!K27</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <f>malinger!H28</f>
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <f>malinger!I28</f>
+        <v>6</v>
+      </c>
+      <c r="E28" t="str">
+        <f>malinger!J28</f>
+        <v>-</v>
+      </c>
+      <c r="F28">
+        <f>malinger!K28</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <f>malinger!H29</f>
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <f>malinger!I29</f>
+        <v>4</v>
+      </c>
+      <c r="E29" t="str">
+        <f>malinger!J29</f>
+        <v>-</v>
+      </c>
+      <c r="F29">
+        <f>malinger!K29</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <f>malinger!H30</f>
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <f>malinger!I30</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>malinger!J30</f>
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F30">
+        <f>malinger!K30</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="C31">
+        <f>malinger!H31</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D31">
+        <f>malinger!I31</f>
+        <v>27.8</v>
+      </c>
+      <c r="E31">
+        <f>malinger!J31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>malinger!K31</f>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <f>malinger!H32</f>
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <f>malinger!I32</f>
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <f>malinger!J32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>malinger!K32</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <f>malinger!H33</f>
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <f>malinger!I33</f>
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <f>malinger!J33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>malinger!K33</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>97</v>
+      </c>
+      <c r="C34">
+        <f>malinger!H34</f>
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <f>malinger!I34</f>
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <f>malinger!J34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>malinger!K34</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35">
+        <f>malinger!H35</f>
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <f>malinger!I35</f>
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <f>malinger!J35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>malinger!K35</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <f>malinger!H36</f>
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <f>malinger!I36</f>
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <f>malinger!J36</f>
+        <v>15.87</v>
+      </c>
+      <c r="F36">
+        <f>malinger!K36</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="C37">
+        <f>malinger!H37</f>
+        <v>97.6</v>
+      </c>
+      <c r="D37">
+        <f>malinger!I37</f>
+        <v>149.6</v>
+      </c>
+      <c r="E37">
+        <f>malinger!J37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>malinger!K37</f>
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <f>malinger!H38</f>
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <f>malinger!I38</f>
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <f>malinger!J38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>malinger!K38</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <f>malinger!H39</f>
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <f>malinger!I39</f>
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <f>malinger!J39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>malinger!K39</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <f>malinger!H40</f>
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <f>malinger!I40</f>
+        <v>19</v>
+      </c>
+      <c r="E40">
+        <f>malinger!J40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>malinger!K40</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <f>malinger!H41</f>
+        <v>77</v>
+      </c>
+      <c r="D41">
+        <f>malinger!I41</f>
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <f>malinger!J41</f>
+        <v>3.68</v>
+      </c>
+      <c r="F41">
+        <f>malinger!K41</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>71</v>
+      </c>
+      <c r="C42">
+        <f>malinger!H42</f>
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <f>malinger!I42</f>
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <f>malinger!J42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>malinger!K42</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="C43">
+        <f>malinger!H43</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D43">
+        <f>malinger!I43</f>
+        <v>142.80000000000001</v>
+      </c>
+      <c r="E43">
+        <f>malinger!J43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>malinger!K43</f>
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D919A5-4B55-4936-B2D2-2FF797B712DE}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.58203125" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+      <c r="C2">
+        <f>malinger!M2</f>
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <f>malinger!N2</f>
+        <v>16</v>
+      </c>
+      <c r="E2" t="str">
+        <f>malinger!O2</f>
+        <v>-</v>
+      </c>
+      <c r="F2">
+        <f>malinger!P2</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <f>malinger!M3</f>
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <f>malinger!N3</f>
+        <v>22</v>
+      </c>
+      <c r="E3" t="str">
+        <f>malinger!O3</f>
+        <v>-</v>
+      </c>
+      <c r="F3">
+        <f>malinger!P3</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <f>malinger!M4</f>
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <f>malinger!N4</f>
+        <v>30</v>
+      </c>
+      <c r="E4" t="str">
+        <f>malinger!O4</f>
+        <v>-</v>
+      </c>
+      <c r="F4">
+        <f>malinger!P4</f>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <f>malinger!M5</f>
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <f>malinger!N5</f>
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f>malinger!O5</f>
+        <v>-</v>
+      </c>
+      <c r="F5">
+        <f>malinger!P5</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <f>malinger!M6</f>
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <f>malinger!N6</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f>malinger!O6</f>
+        <v>9.99</v>
+      </c>
+      <c r="F6">
+        <f>malinger!P6</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="C7">
+        <f>malinger!M7</f>
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <f>malinger!N7</f>
+        <v>28</v>
+      </c>
+      <c r="E7" t="str">
+        <f>malinger!O7</f>
+        <v>-</v>
+      </c>
+      <c r="F7">
+        <f>malinger!P7</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <f>malinger!M8</f>
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <f>malinger!N8</f>
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <f>malinger!O8</f>
+        <v>-4.5</v>
+      </c>
+      <c r="F8">
+        <f>malinger!P8</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="str">
+        <f>malinger!M9</f>
+        <v>NaN</v>
+      </c>
+      <c r="D9" t="str">
+        <f>malinger!N9</f>
+        <v>NaN</v>
+      </c>
+      <c r="E9" t="str">
+        <f>malinger!O9</f>
+        <v>-</v>
+      </c>
+      <c r="F9" t="str">
+        <f>malinger!P9</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <f>malinger!M10</f>
+        <v>98</v>
+      </c>
+      <c r="D10">
+        <f>malinger!N10</f>
+        <v>23</v>
+      </c>
+      <c r="E10" t="str">
+        <f>malinger!O10</f>
+        <v>-</v>
+      </c>
+      <c r="F10">
+        <f>malinger!P10</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>76</v>
+      </c>
+      <c r="C11">
+        <f>malinger!M11</f>
+        <v>104</v>
+      </c>
+      <c r="D11">
+        <f>malinger!N11</f>
+        <v>18</v>
+      </c>
+      <c r="E11" t="str">
+        <f>malinger!O11</f>
+        <v>-</v>
+      </c>
+      <c r="F11">
+        <f>malinger!P11</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="C12">
+        <f>malinger!M12</f>
+        <v>83.8</v>
+      </c>
+      <c r="D12">
+        <f>malinger!N12</f>
+        <v>384.6</v>
+      </c>
+      <c r="E12" t="str">
+        <f>malinger!O12</f>
+        <v>-</v>
+      </c>
+      <c r="F12">
+        <f>malinger!P12</f>
+        <v>384.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="4">
+        <v>72.2</v>
+      </c>
+      <c r="C13">
+        <f>malinger!M13</f>
+        <v>103.25</v>
+      </c>
+      <c r="D13">
+        <f>malinger!N13</f>
+        <v>990.75</v>
+      </c>
+      <c r="E13" t="str">
+        <f>malinger!O13</f>
+        <v>-</v>
+      </c>
+      <c r="F13">
+        <f>malinger!P13</f>
+        <v>990.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <f>malinger!M14</f>
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <f>malinger!N14</f>
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f>malinger!O14</f>
+        <v>-0.60399999999999998</v>
+      </c>
+      <c r="F14">
+        <f>malinger!P14</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <f>malinger!M15</f>
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <f>malinger!N15</f>
+        <v>15</v>
+      </c>
+      <c r="E15" t="str">
+        <f>malinger!O15</f>
+        <v>-</v>
+      </c>
+      <c r="F15">
+        <f>malinger!P15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <f>malinger!M16</f>
+        <v>97</v>
+      </c>
+      <c r="D16">
+        <f>malinger!N16</f>
+        <v>24</v>
+      </c>
+      <c r="E16" t="str">
+        <f>malinger!O16</f>
+        <v>-</v>
+      </c>
+      <c r="F16">
+        <f>malinger!P16</f>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <f>malinger!M17</f>
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <f>malinger!N17</f>
+        <v>30</v>
+      </c>
+      <c r="E17" t="str">
+        <f>malinger!O17</f>
+        <v>-</v>
+      </c>
+      <c r="F17">
+        <f>malinger!P17</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <f>malinger!M18</f>
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <f>malinger!N18</f>
+        <v>22</v>
+      </c>
+      <c r="E18" t="str">
+        <f>malinger!O18</f>
+        <v>-</v>
+      </c>
+      <c r="F18">
+        <f>malinger!P18</f>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="C19">
+        <f>malinger!M19</f>
+        <v>87</v>
+      </c>
+      <c r="D19">
+        <f>malinger!N19</f>
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <f>malinger!O19</f>
+        <v>2.34</v>
+      </c>
+      <c r="F19">
+        <f>malinger!P19</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <f>malinger!M20</f>
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <f>malinger!N20</f>
+        <v>22</v>
+      </c>
+      <c r="E20" t="str">
+        <f>malinger!O20</f>
+        <v>-</v>
+      </c>
+      <c r="F20">
+        <f>malinger!P20</f>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <f>malinger!M21</f>
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <f>malinger!N21</f>
+        <v>14</v>
+      </c>
+      <c r="E21" t="str">
+        <f>malinger!O21</f>
+        <v>-</v>
+      </c>
+      <c r="F21">
+        <f>malinger!P21</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <f>malinger!M22</f>
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <f>malinger!N22</f>
+        <v>16</v>
+      </c>
+      <c r="E22" t="str">
+        <f>malinger!O22</f>
+        <v>-</v>
+      </c>
+      <c r="F22">
+        <f>malinger!P22</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>72</v>
+      </c>
+      <c r="C23">
+        <f>malinger!M23</f>
+        <v>96</v>
+      </c>
+      <c r="D23">
+        <f>malinger!N23</f>
+        <v>26</v>
+      </c>
+      <c r="E23" t="str">
+        <f>malinger!O23</f>
+        <v>-</v>
+      </c>
+      <c r="F23">
+        <f>malinger!P23</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4">
+        <v>72.2</v>
+      </c>
+      <c r="C24">
+        <f>malinger!M24</f>
+        <v>88.8</v>
+      </c>
+      <c r="D24">
+        <f>malinger!N24</f>
+        <v>379</v>
+      </c>
+      <c r="E24" t="str">
+        <f>malinger!O24</f>
+        <v>-</v>
+      </c>
+      <c r="F24">
+        <f>malinger!P24</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="C25">
+        <f>malinger!M25</f>
+        <v>87</v>
+      </c>
+      <c r="D25">
+        <f>malinger!N25</f>
+        <v>610.6</v>
+      </c>
+      <c r="E25" t="str">
+        <f>malinger!O25</f>
+        <v>-</v>
+      </c>
+      <c r="F25">
+        <f>malinger!P25</f>
+        <v>610.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <f>malinger!M26</f>
+        <v>77</v>
+      </c>
+      <c r="D26">
+        <f>malinger!N26</f>
+        <v>20</v>
+      </c>
+      <c r="E26" t="str">
+        <f>malinger!O26</f>
+        <v>-</v>
+      </c>
+      <c r="F26">
+        <f>malinger!P26</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>83</v>
+      </c>
+      <c r="C27">
+        <f>malinger!M27</f>
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <f>malinger!N27</f>
+        <v>11</v>
+      </c>
+      <c r="E27" t="str">
+        <f>malinger!O27</f>
+        <v>-</v>
+      </c>
+      <c r="F27">
+        <f>malinger!P27</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <f>malinger!M28</f>
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <f>malinger!N28</f>
+        <v>11</v>
+      </c>
+      <c r="E28" t="str">
+        <f>malinger!O28</f>
+        <v>-</v>
+      </c>
+      <c r="F28">
+        <f>malinger!P28</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>73</v>
+      </c>
+      <c r="C29">
+        <f>malinger!M29</f>
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <f>malinger!N29</f>
+        <v>4</v>
+      </c>
+      <c r="E29" t="str">
+        <f>malinger!O29</f>
+        <v>-</v>
+      </c>
+      <c r="F29">
+        <f>malinger!P29</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <f>malinger!M30</f>
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <f>malinger!N30</f>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>malinger!O30</f>
+        <v>31.93</v>
+      </c>
+      <c r="F30">
+        <f>malinger!P30</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4">
+        <v>72.8</v>
+      </c>
+      <c r="C31">
+        <f>malinger!M31</f>
+        <v>68.2</v>
+      </c>
+      <c r="D31">
+        <f>malinger!N31</f>
+        <v>146.20000000000002</v>
+      </c>
+      <c r="E31">
+        <f>malinger!O31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>malinger!P31</f>
+        <v>146.19999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <f>malinger!M32</f>
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <f>malinger!N32</f>
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <f>malinger!O32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>malinger!P32</f>
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>102</v>
+      </c>
+      <c r="C33">
+        <f>malinger!M33</f>
+        <v>152</v>
+      </c>
+      <c r="D33">
+        <f>malinger!N33</f>
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <f>malinger!O33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>malinger!P33</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>97</v>
+      </c>
+      <c r="C34" t="str">
+        <f>malinger!M34</f>
+        <v>NaN</v>
+      </c>
+      <c r="D34" t="str">
+        <f>malinger!N34</f>
+        <v>NaN</v>
+      </c>
+      <c r="E34">
+        <f>malinger!O34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <f>malinger!P34</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>90</v>
+      </c>
+      <c r="C35" t="str">
+        <f>malinger!M35</f>
+        <v>Nan</v>
+      </c>
+      <c r="D35" t="str">
+        <f>malinger!N35</f>
+        <v>NaN</v>
+      </c>
+      <c r="E35">
+        <f>malinger!O35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <f>malinger!P35</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <f>malinger!M36</f>
+        <v>127</v>
+      </c>
+      <c r="D36">
+        <f>malinger!N36</f>
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <f>malinger!O36</f>
+        <v>-1.32</v>
+      </c>
+      <c r="F36">
+        <f>malinger!P36</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="C37">
+        <f>malinger!M37</f>
+        <v>108.33333333333333</v>
+      </c>
+      <c r="D37">
+        <f>malinger!N37</f>
+        <v>1919.3333333333333</v>
+      </c>
+      <c r="E37">
+        <f>malinger!O37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>malinger!P37</f>
+        <v>1919.3333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38" t="str">
+        <f>malinger!M38</f>
+        <v>NaN</v>
+      </c>
+      <c r="D38" t="str">
+        <f>malinger!N38</f>
+        <v>NaN</v>
+      </c>
+      <c r="E38">
+        <f>malinger!O38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>malinger!P38</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <f>malinger!M39</f>
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <f>malinger!N39</f>
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <f>malinger!O39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>malinger!P39</f>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <f>malinger!M40</f>
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <f>malinger!N40</f>
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <f>malinger!O40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>malinger!P40</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <f>malinger!M41</f>
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <f>malinger!N41</f>
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <f>malinger!O41</f>
+        <v>-5.1100000000000003</v>
+      </c>
+      <c r="F41">
+        <f>malinger!P41</f>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>71</v>
+      </c>
+      <c r="C42" t="str">
+        <f>malinger!M42</f>
+        <v>NaN</v>
+      </c>
+      <c r="D42" t="str">
+        <f>malinger!N42</f>
+        <v>NaN</v>
+      </c>
+      <c r="E42">
+        <f>malinger!O42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <f>malinger!P42</f>
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="C43">
+        <f>malinger!M43</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="D43">
+        <f>malinger!N43</f>
+        <v>795.33333333333326</v>
+      </c>
+      <c r="E43">
+        <f>malinger!O43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>malinger!P43</f>
+        <v>596.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1048576"/>
   <sheetViews>
@@ -2624,7 +4703,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
@@ -2641,7 +4720,7 @@
     <col min="15" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +4765,7 @@
       </c>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2731,7 +4810,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2776,7 +4855,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2812,7 +4891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2857,7 +4936,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2902,7 +4981,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2935,7 +5014,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2968,7 +5047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3001,7 +5080,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3034,7 +5113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3067,7 +5146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3092,7 +5171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3117,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -3147,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3186,7 +5265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3225,7 +5304,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3264,7 +5343,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3303,7 +5382,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3336,7 +5415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3369,7 +5448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3402,7 +5481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3447,7 +5526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3480,7 +5559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -3505,7 +5584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -3530,7 +5609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3575,7 +5654,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3620,7 +5699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3665,7 +5744,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3710,7 +5789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3746,57 +5825,57 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="1048576" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J1048576" t="s">
         <v>33</v>
       </c>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaute\Documents\TTT4280\lab\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2DAE7A-3EBC-4B7E-86AC-889FC53CBFC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718A7AD-2379-453D-8D8F-E0872C91BFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="malinger" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="60">
   <si>
     <t>Situasjon</t>
   </si>
@@ -159,34 +159,13 @@
     <t>Transmittans_Rettpa, pulse bin 35-213</t>
   </si>
   <si>
-    <t>SNR blå [dBc]</t>
-  </si>
-  <si>
-    <t>SNR grønn [dBc]</t>
-  </si>
-  <si>
-    <t>SNR rød [dBc]</t>
-  </si>
-  <si>
     <t>Puls grønn</t>
-  </si>
-  <si>
-    <t>Standardavvik grønn</t>
   </si>
   <si>
     <t>Puls blå</t>
   </si>
   <si>
-    <t>Standardavvik blå</t>
-  </si>
-  <si>
     <t>Puls rød</t>
-  </si>
-  <si>
-    <t>Differanse^2 grønn</t>
-  </si>
-  <si>
-    <t>Differanse^2 blå</t>
   </si>
   <si>
     <t>AVGPerson1</t>
@@ -213,6 +192,12 @@
     <t>Differanse$^2$ rød</t>
   </si>
   <si>
+    <t>Differanse$^2$ grønn</t>
+  </si>
+  <si>
+    <t>Differanse$^2$ blå</t>
+  </si>
+  <si>
     <t>Standard-avvik grønn</t>
   </si>
   <si>
@@ -220,6 +205,15 @@
   </si>
   <si>
     <t>Standard-avvik blå</t>
+  </si>
+  <si>
+    <t>SNR rød [dB]</t>
+  </si>
+  <si>
+    <t>SNR grønn [dB]</t>
+  </si>
+  <si>
+    <t>SNR blå [dB]</t>
   </si>
 </sst>
 </file>
@@ -229,13 +223,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -246,7 +247,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +260,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,20 +276,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40 % – uthevingsfarge 3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -616,7 +631,7 @@
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" customWidth="1"/>
     <col min="13" max="13" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="1023" width="10.33203125" customWidth="1"/>
@@ -631,45 +646,45 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>76</v>
@@ -680,8 +695,8 @@
       <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>-9.35</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F11" si="0">(C2-B2)^2</f>
@@ -693,8 +708,8 @@
       <c r="I2">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
+      <c r="J2">
+        <v>-4.6900000000000004</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K11" si="1">(H2-B2)^2</f>
@@ -706,8 +721,8 @@
       <c r="N2">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
-        <v>11</v>
+      <c r="O2">
+        <v>-7.79</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P8" si="2">(M2-B2)^2</f>
@@ -716,7 +731,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -727,8 +742,8 @@
       <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="E3">
+        <v>-13.9</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -740,8 +755,8 @@
       <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
+      <c r="J3">
+        <v>-8.48</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
@@ -753,8 +768,8 @@
       <c r="N3">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
-        <v>11</v>
+      <c r="O3">
+        <v>-6.09</v>
       </c>
       <c r="P3">
         <f t="shared" si="2"/>
@@ -763,7 +778,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>77</v>
@@ -774,8 +789,8 @@
       <c r="D4">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E4">
+        <v>-11.6</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -787,8 +802,8 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
+      <c r="J4">
+        <v>-1.77</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -800,8 +815,8 @@
       <c r="N4">
         <v>30</v>
       </c>
-      <c r="O4" t="s">
-        <v>11</v>
+      <c r="O4">
+        <v>-8.3699999999999992</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
@@ -810,7 +825,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -821,8 +836,8 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="E5">
+        <v>-8.7100000000000009</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -834,8 +849,8 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
+      <c r="J5">
+        <v>-5.3</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -847,8 +862,8 @@
       <c r="N5">
         <v>4</v>
       </c>
-      <c r="O5" t="s">
-        <v>11</v>
+      <c r="O5">
+        <v>-5.19</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
@@ -857,7 +872,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>73</v>
@@ -869,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>10.75</v>
+        <v>-7.22</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -882,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="J6">
-        <v>11.54</v>
+        <v>-3.18</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
@@ -895,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="O6">
-        <v>9.99</v>
+        <v>-2.85</v>
       </c>
       <c r="P6">
         <f t="shared" si="2"/>
@@ -904,7 +919,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -915,8 +930,8 @@
       <c r="D7">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
+      <c r="E7">
+        <v>-16.3</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -928,8 +943,8 @@
       <c r="I7">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
+      <c r="J7">
+        <v>-15.3</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
@@ -941,17 +956,17 @@
       <c r="N7">
         <v>28</v>
       </c>
-      <c r="O7" t="s">
-        <v>11</v>
+      <c r="O7">
+        <v>-16.100000000000001</v>
       </c>
       <c r="P7">
-        <f t="shared" si="2"/>
+        <f>(M7-B7)^2</f>
         <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -963,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>1.57</v>
+        <v>-9.8699999999999992</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -975,8 +990,8 @@
       <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8">
-        <v>-0.65</v>
+      <c r="J8" s="2">
+        <v>-10.3</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
@@ -989,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="O8">
-        <v>-4.5</v>
+        <v>-13.6</v>
       </c>
       <c r="P8">
         <f t="shared" si="2"/>
@@ -998,7 +1013,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>69</v>
@@ -1009,8 +1024,8 @@
       <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="E9">
+        <v>-10.3</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1022,8 +1037,8 @@
       <c r="I9">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
+      <c r="J9">
+        <v>-11.9</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
@@ -1035,8 +1050,8 @@
       <c r="N9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" t="s">
-        <v>11</v>
+      <c r="O9">
+        <v>-14.5</v>
       </c>
       <c r="P9" t="s">
         <v>19</v>
@@ -1044,7 +1059,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>73</v>
@@ -1055,8 +1070,8 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
+      <c r="E10">
+        <v>-8.7100000000000009</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -1068,8 +1083,8 @@
       <c r="I10">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
+      <c r="J10">
+        <v>-8.9600000000000009</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
@@ -1081,8 +1096,8 @@
       <c r="N10">
         <v>23</v>
       </c>
-      <c r="O10" t="s">
-        <v>11</v>
+      <c r="O10">
+        <v>-9.64</v>
       </c>
       <c r="P10">
         <f>(M10-B10)^2</f>
@@ -1091,7 +1106,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>76</v>
@@ -1102,8 +1117,8 @@
       <c r="D11">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
+      <c r="E11">
+        <v>-12.2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -1115,8 +1130,8 @@
       <c r="I11">
         <v>15</v>
       </c>
-      <c r="J11" t="s">
-        <v>11</v>
+      <c r="J11">
+        <v>-12.4</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
@@ -1128,8 +1143,8 @@
       <c r="N11">
         <v>18</v>
       </c>
-      <c r="O11" t="s">
-        <v>11</v>
+      <c r="O11">
+        <v>-12.9</v>
       </c>
       <c r="P11">
         <f>(M11-B11)^2</f>
@@ -1138,7 +1153,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4">
         <f>AVERAGE(B2:B6)</f>
@@ -1152,8 +1167,9 @@
         <f>(1/COUNT(D2:D6))*SUM(F2:F6)</f>
         <v>27.200000000000003</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
+      <c r="E12" s="5">
+        <f>AVERAGE(E2:E6)</f>
+        <v>-10.156000000000001</v>
       </c>
       <c r="F12" s="4">
         <f>AVERAGE(F2:F6)</f>
@@ -1167,8 +1183,9 @@
         <f>(1/COUNT(I2:I6))*SUM(K2:K6)</f>
         <v>10.8</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>11</v>
+      <c r="J12" s="6">
+        <f>AVERAGE(J2:J6)</f>
+        <v>-4.6840000000000002</v>
       </c>
       <c r="K12" s="4">
         <f>AVERAGE(K2:K6)</f>
@@ -1178,21 +1195,22 @@
         <f>AVERAGE(M2:M6)</f>
         <v>83.8</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="7">
         <f>(1/COUNT(N2:N6))*SUM(P2:P6)</f>
         <v>384.6</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="O12" s="6">
+        <f>AVERAGE(O2:O6)</f>
+        <v>-6.0580000000000007</v>
+      </c>
+      <c r="P12" s="7">
         <f>AVERAGE(P2:P6)</f>
         <v>384.6</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4">
         <f>AVERAGE(B7:B11)</f>
@@ -1202,14 +1220,15 @@
         <f>AVERAGE(C7:C11)</f>
         <v>81.8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <f>(1/COUNT(D7:D11))*SUM(F7:F11)</f>
         <v>182.8</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="5">
+        <f>AVERAGE(E7:E11)</f>
+        <v>-11.475999999999999</v>
+      </c>
+      <c r="F13" s="7">
         <f>AVERAGE(F7:F11)</f>
         <v>182.8</v>
       </c>
@@ -1221,32 +1240,34 @@
         <f>(1/COUNT(I7:I11))*SUM(K7:K11)</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>11</v>
+      <c r="J13" s="5">
+        <f>AVERAGE(J7:J11)</f>
+        <v>-11.772</v>
       </c>
       <c r="K13" s="4">
         <f>AVERAGE(K7:K11)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="5">
         <f>AVERAGE(M7:M11)</f>
         <v>103.25</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="7">
         <f>(1/COUNT(N7:N11))*SUM(P7:P11)</f>
         <v>990.75</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="4">
+      <c r="O13" s="5">
+        <f>AVERAGE(O7:O11)</f>
+        <v>-13.348000000000003</v>
+      </c>
+      <c r="P13" s="7">
         <f>AVERAGE(P7:P11)</f>
         <v>990.75</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>73</v>
@@ -1258,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>-4.12</v>
+        <v>-14</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F23" si="3">(C14-B14)^2</f>
@@ -1271,7 +1292,7 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>-1.79</v>
+        <v>-16</v>
       </c>
       <c r="K14">
         <f t="shared" ref="K14:K23" si="4">(H14-B14)^2</f>
@@ -1284,7 +1305,7 @@
         <v>20</v>
       </c>
       <c r="O14">
-        <v>-0.60399999999999998</v>
+        <v>-16.8</v>
       </c>
       <c r="P14">
         <f t="shared" ref="P14:P23" si="5">(M14-B14)^2</f>
@@ -1293,7 +1314,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>76</v>
@@ -1304,8 +1325,8 @@
       <c r="D15">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
+      <c r="E15">
+        <v>-12.6</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
@@ -1317,8 +1338,8 @@
       <c r="I15">
         <v>12</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
+      <c r="J15">
+        <v>-12</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
@@ -1330,8 +1351,8 @@
       <c r="N15">
         <v>15</v>
       </c>
-      <c r="O15" t="s">
-        <v>11</v>
+      <c r="O15">
+        <v>-12.3</v>
       </c>
       <c r="P15">
         <f t="shared" si="5"/>
@@ -1340,7 +1361,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>68</v>
@@ -1351,8 +1372,8 @@
       <c r="D16">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
+      <c r="E16">
+        <v>-13</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
@@ -1364,8 +1385,8 @@
       <c r="I16">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
+      <c r="J16">
+        <v>-10.7</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
@@ -1377,8 +1398,8 @@
       <c r="N16">
         <v>24</v>
       </c>
-      <c r="O16" t="s">
-        <v>11</v>
+      <c r="O16">
+        <v>-13.7</v>
       </c>
       <c r="P16">
         <f t="shared" si="5"/>
@@ -1387,7 +1408,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>72</v>
@@ -1398,8 +1419,8 @@
       <c r="D17">
         <v>23</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
+      <c r="E17">
+        <v>-13.2</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
@@ -1411,8 +1432,8 @@
       <c r="I17">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
-        <v>11</v>
+      <c r="J17">
+        <v>-11.9</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
@@ -1424,8 +1445,8 @@
       <c r="N17">
         <v>30</v>
       </c>
-      <c r="O17" t="s">
-        <v>11</v>
+      <c r="O17">
+        <v>-14.7</v>
       </c>
       <c r="P17">
         <f t="shared" si="5"/>
@@ -1434,7 +1455,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>72</v>
@@ -1445,8 +1466,8 @@
       <c r="D18">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
+      <c r="E18">
+        <v>-16.5</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
@@ -1458,8 +1479,8 @@
       <c r="I18">
         <v>12</v>
       </c>
-      <c r="J18" t="s">
-        <v>11</v>
+      <c r="J18">
+        <v>-13</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
@@ -1471,8 +1492,8 @@
       <c r="N18">
         <v>22</v>
       </c>
-      <c r="O18" t="s">
-        <v>11</v>
+      <c r="O18">
+        <v>-14</v>
       </c>
       <c r="P18">
         <f t="shared" si="5"/>
@@ -1481,7 +1502,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>74</v>
@@ -1493,7 +1514,7 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <v>3.03</v>
+        <v>-14</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
@@ -1506,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="J19">
-        <v>3.81</v>
+        <v>-11.9</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
@@ -1519,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="O19">
-        <v>2.34</v>
+        <v>-14.1</v>
       </c>
       <c r="P19">
         <f t="shared" si="5"/>
@@ -1528,7 +1549,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>72</v>
@@ -1539,8 +1560,8 @@
       <c r="D20">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
+      <c r="E20">
+        <v>-14</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
@@ -1552,8 +1573,8 @@
       <c r="I20">
         <v>9</v>
       </c>
-      <c r="J20" t="s">
-        <v>11</v>
+      <c r="J20">
+        <v>-12.3</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
@@ -1565,8 +1586,8 @@
       <c r="N20">
         <v>22</v>
       </c>
-      <c r="O20" t="s">
-        <v>11</v>
+      <c r="O20">
+        <v>-14.2</v>
       </c>
       <c r="P20">
         <f t="shared" si="5"/>
@@ -1575,7 +1596,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -1586,8 +1607,8 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
+      <c r="E21">
+        <v>-7.13</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
@@ -1599,8 +1620,8 @@
       <c r="I21">
         <v>2</v>
       </c>
-      <c r="J21" t="s">
-        <v>11</v>
+      <c r="J21">
+        <v>-7.56</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
@@ -1612,8 +1633,8 @@
       <c r="N21">
         <v>14</v>
       </c>
-      <c r="O21" t="s">
-        <v>11</v>
+      <c r="O21">
+        <v>-13.1</v>
       </c>
       <c r="P21">
         <f t="shared" si="5"/>
@@ -1622,7 +1643,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>74</v>
@@ -1633,8 +1654,8 @@
       <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
+      <c r="E22">
+        <v>-9.92</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
@@ -1646,8 +1667,8 @@
       <c r="I22">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
-        <v>11</v>
+      <c r="J22">
+        <v>-10.199999999999999</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
@@ -1659,8 +1680,8 @@
       <c r="N22">
         <v>16</v>
       </c>
-      <c r="O22" t="s">
-        <v>11</v>
+      <c r="O22">
+        <v>-13.8</v>
       </c>
       <c r="P22">
         <f t="shared" si="5"/>
@@ -1669,7 +1690,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -1680,8 +1701,8 @@
       <c r="D23">
         <v>18</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
+      <c r="E23">
+        <v>-12.2</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
@@ -1693,8 +1714,8 @@
       <c r="I23">
         <v>6</v>
       </c>
-      <c r="J23" t="s">
-        <v>11</v>
+      <c r="J23">
+        <v>-8.4</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
@@ -1706,8 +1727,8 @@
       <c r="N23">
         <v>26</v>
       </c>
-      <c r="O23" t="s">
-        <v>11</v>
+      <c r="O23">
+        <v>-14.2</v>
       </c>
       <c r="P23">
         <f t="shared" si="5"/>
@@ -1716,7 +1737,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4">
         <f>AVERAGE(B14:B18)</f>
@@ -1726,14 +1747,15 @@
         <f>AVERAGE(C14:C18)</f>
         <v>80</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="7">
         <f>(1/COUNT(D14:D18))*SUM(F14:F18)</f>
         <v>206.20000000000002</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24" s="5">
+        <f>AVERAGE(E14:E18)</f>
+        <v>-13.86</v>
+      </c>
+      <c r="F24" s="7">
         <f>AVERAGE(F14:F18)</f>
         <v>206.2</v>
       </c>
@@ -1741,14 +1763,15 @@
         <f>AVERAGE(H14:H18)</f>
         <v>62.4</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="7">
         <f>(1/COUNT(I14:I18))*SUM(K14:K18)</f>
         <v>223.8</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="J24" s="5">
+        <f>AVERAGE(J14:J18)</f>
+        <v>-12.72</v>
+      </c>
+      <c r="K24" s="7">
         <f>AVERAGE(K14:K18)</f>
         <v>223.8</v>
       </c>
@@ -1760,8 +1783,9 @@
         <f>(1/COUNT(N14:N18))*SUM(P14:P18)</f>
         <v>379</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>11</v>
+      <c r="O24" s="4">
+        <f>AVERAGE(O14:O18)</f>
+        <v>-14.3</v>
       </c>
       <c r="P24" s="4">
         <f>AVERAGE(P14:P18)</f>
@@ -1770,7 +1794,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4">
         <f>AVERAGE(B19:B23)</f>
@@ -1780,14 +1804,15 @@
         <f>AVERAGE(C19:C23)</f>
         <v>70.400000000000006</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="7">
         <f>(1/COUNT(D19:D23))*SUM(F19:F23)</f>
         <v>349.6</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="5">
+        <f>AVERAGE(E19:E23)</f>
+        <v>-11.45</v>
+      </c>
+      <c r="F25" s="7">
         <f>AVERAGE(F19:F23)</f>
         <v>349.6</v>
       </c>
@@ -1799,10 +1824,11 @@
         <f>(1/COUNT(I19:I23))*SUM(K19:K23)</f>
         <v>354</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="J25" s="5">
+        <f>AVERAGE(J19:J23)</f>
+        <v>-10.071999999999999</v>
+      </c>
+      <c r="K25" s="7">
         <f>AVERAGE(K15:K19)</f>
         <v>202.2</v>
       </c>
@@ -1810,14 +1836,15 @@
         <f>AVERAGE(M19:M23)</f>
         <v>87</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="7">
         <f>(1/COUNT(N19:N23))*SUM(P19:P23)</f>
         <v>610.6</v>
       </c>
-      <c r="O25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="4">
+      <c r="O25" s="5">
+        <f>AVERAGE(O19:O23)</f>
+        <v>-13.88</v>
+      </c>
+      <c r="P25" s="7">
         <f>AVERAGE(P19:P23)</f>
         <v>610.6</v>
       </c>
@@ -1835,8 +1862,8 @@
       <c r="D26">
         <v>21</v>
       </c>
-      <c r="E26" t="s">
-        <v>11</v>
+      <c r="E26">
+        <v>-8.8800000000000008</v>
       </c>
       <c r="F26">
         <f>(C26-B26)^2</f>
@@ -1848,8 +1875,8 @@
       <c r="I26">
         <v>21</v>
       </c>
-      <c r="J26" t="s">
-        <v>11</v>
+      <c r="J26">
+        <v>-10.71</v>
       </c>
       <c r="K26">
         <f>(H26-B26)^2</f>
@@ -1861,8 +1888,8 @@
       <c r="N26">
         <v>20</v>
       </c>
-      <c r="O26" t="s">
-        <v>11</v>
+      <c r="O26">
+        <v>-10.72</v>
       </c>
       <c r="P26">
         <f>(M26-B26)^2</f>
@@ -1882,8 +1909,8 @@
       <c r="D27">
         <v>10</v>
       </c>
-      <c r="E27" t="s">
-        <v>11</v>
+      <c r="E27">
+        <v>-10.7</v>
       </c>
       <c r="F27">
         <f>(C27-B27)^2</f>
@@ -1895,8 +1922,8 @@
       <c r="I27">
         <v>9</v>
       </c>
-      <c r="J27" t="s">
-        <v>11</v>
+      <c r="J27">
+        <v>-12.7</v>
       </c>
       <c r="K27">
         <f>(H27-B27)^2</f>
@@ -1908,8 +1935,8 @@
       <c r="N27">
         <v>11</v>
       </c>
-      <c r="O27" t="s">
-        <v>11</v>
+      <c r="O27">
+        <v>-11.5</v>
       </c>
       <c r="P27">
         <f>(M27-B27)^2</f>
@@ -1929,8 +1956,8 @@
       <c r="D28">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
+      <c r="E28">
+        <v>-8.93</v>
       </c>
       <c r="F28">
         <f>(C28-B28)^2</f>
@@ -1942,8 +1969,8 @@
       <c r="I28">
         <v>6</v>
       </c>
-      <c r="J28" t="s">
-        <v>11</v>
+      <c r="J28">
+        <v>-9.64</v>
       </c>
       <c r="K28">
         <f>(H28-B28)^2</f>
@@ -1955,8 +1982,8 @@
       <c r="N28">
         <v>11</v>
       </c>
-      <c r="O28" t="s">
-        <v>11</v>
+      <c r="O28">
+        <v>-11.9</v>
       </c>
       <c r="P28">
         <f>(M28-B28)^2</f>
@@ -1976,8 +2003,8 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
+      <c r="E29">
+        <v>-7.3</v>
       </c>
       <c r="F29">
         <f>(C29-B29)^2</f>
@@ -1989,8 +2016,8 @@
       <c r="I29">
         <v>4</v>
       </c>
-      <c r="J29" t="s">
-        <v>11</v>
+      <c r="J29">
+        <v>-7.19</v>
       </c>
       <c r="K29">
         <f>(H29-B29)^2</f>
@@ -2002,8 +2029,8 @@
       <c r="N29">
         <v>4</v>
       </c>
-      <c r="O29" t="s">
-        <v>11</v>
+      <c r="O29">
+        <v>-8.41</v>
       </c>
       <c r="P29">
         <f>(M29-B29)^2</f>
@@ -2024,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>8.76</v>
+        <v>-5.77</v>
       </c>
       <c r="F30">
         <f>(C30-B30)^2</f>
@@ -2037,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>9.2100000000000009</v>
+        <v>-6.19</v>
       </c>
       <c r="K30">
         <f>(H30-B30)^2</f>
@@ -2050,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="O30">
-        <v>31.93</v>
+        <v>-8.9499999999999993</v>
       </c>
       <c r="P30">
         <f>(M30-B30)^2</f>
@@ -2059,13 +2086,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4">
         <f>AVERAGE(B26:B30)</f>
         <v>72.8</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <f>AVERAGE(C25:C29)</f>
         <v>73.28</v>
       </c>
@@ -2073,7 +2100,10 @@
         <f>(1/COUNT(D26:D30))*SUM(F26:F30)</f>
         <v>27</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="6">
+        <f>AVERAGE(E26:E30)</f>
+        <v>-8.3159999999999989</v>
+      </c>
       <c r="F31" s="4">
         <f>AVERAGE(F26:F30)</f>
         <v>27</v>
@@ -2086,7 +2116,10 @@
         <f>(1/COUNT(I26:I30))*SUM(K26:K30)</f>
         <v>27.8</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="6">
+        <f>AVERAGE(J26:J30)</f>
+        <v>-9.2859999999999978</v>
+      </c>
       <c r="K31" s="4">
         <f>AVERAGE(K26:K30)</f>
         <v>27.8</v>
@@ -2099,8 +2132,11 @@
         <f>(1/COUNT(N26:N30))*SUM(P26:P30)</f>
         <v>146.20000000000002</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
+      <c r="O31" s="5">
+        <f>AVERAGE(O26:O30)</f>
+        <v>-10.296000000000001</v>
+      </c>
+      <c r="P31" s="7">
         <f>AVERAGE(P26:P30)</f>
         <v>146.19999999999999</v>
       </c>
@@ -2118,6 +2154,9 @@
       <c r="D32">
         <v>19</v>
       </c>
+      <c r="E32">
+        <v>-14.3</v>
+      </c>
       <c r="F32">
         <f>(C32-B32)^2</f>
         <v>625</v>
@@ -2128,6 +2167,9 @@
       <c r="I32">
         <v>22</v>
       </c>
+      <c r="J32">
+        <v>-16.8</v>
+      </c>
       <c r="K32">
         <f>(H32-B32)^2</f>
         <v>441</v>
@@ -2138,6 +2180,9 @@
       <c r="N32">
         <v>28</v>
       </c>
+      <c r="O32">
+        <v>-14.6</v>
+      </c>
       <c r="P32">
         <f>(M32-B32)^2</f>
         <v>3249</v>
@@ -2156,6 +2201,9 @@
       <c r="D33">
         <v>17</v>
       </c>
+      <c r="E33">
+        <v>-15.2</v>
+      </c>
       <c r="F33">
         <f>(C33-B33)^2</f>
         <v>81</v>
@@ -2166,6 +2214,9 @@
       <c r="I33">
         <v>25</v>
       </c>
+      <c r="J33">
+        <v>-16.100000000000001</v>
+      </c>
       <c r="K33">
         <f>(H33-B33)^2</f>
         <v>49</v>
@@ -2176,6 +2227,9 @@
       <c r="N33">
         <v>22</v>
       </c>
+      <c r="O33">
+        <v>-15.6</v>
+      </c>
       <c r="P33">
         <f>(M33-B33)^2</f>
         <v>2500</v>
@@ -2194,6 +2248,9 @@
       <c r="D34">
         <v>12</v>
       </c>
+      <c r="E34">
+        <v>-15.6</v>
+      </c>
       <c r="F34">
         <f>(C34-B34)^2</f>
         <v>49</v>
@@ -2204,6 +2261,9 @@
       <c r="I34">
         <v>6</v>
       </c>
+      <c r="J34">
+        <v>-12.5</v>
+      </c>
       <c r="K34">
         <f>(H34-B34)^2</f>
         <v>25</v>
@@ -2214,6 +2274,9 @@
       <c r="N34" t="s">
         <v>19</v>
       </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
       <c r="P34" t="s">
         <v>19</v>
       </c>
@@ -2231,6 +2294,9 @@
       <c r="D35">
         <v>11</v>
       </c>
+      <c r="E35">
+        <v>-14.6</v>
+      </c>
       <c r="F35">
         <f>(C35-B35)^2</f>
         <v>0</v>
@@ -2241,6 +2307,9 @@
       <c r="I35">
         <v>18</v>
       </c>
+      <c r="J35">
+        <v>-12.5</v>
+      </c>
       <c r="K35">
         <f>(H35-B35)^2</f>
         <v>64</v>
@@ -2251,6 +2320,9 @@
       <c r="N35" t="s">
         <v>19</v>
       </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
       <c r="P35" t="s">
         <v>19</v>
       </c>
@@ -2269,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>14.84</v>
+        <v>-6.3</v>
       </c>
       <c r="F36">
         <f>(C36-B36)^2</f>
@@ -2282,7 +2354,7 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <v>15.87</v>
+        <v>-7.13</v>
       </c>
       <c r="K36">
         <f>(H36-B36)^2</f>
@@ -2295,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="O36">
-        <v>-1.32</v>
+        <v>-13.9</v>
       </c>
       <c r="P36">
         <f>(M36-B36)^2</f>
@@ -2304,22 +2376,25 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="4">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
         <f>AVERAGE(B32:B36)</f>
         <v>103.2</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <f>AVERAGE(C31:C35)</f>
         <v>88.455999999999989</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="7">
         <f>(1/COUNT(D32:D36))*SUM(F32:F36)</f>
         <v>179.8</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4">
+      <c r="E37" s="4">
+        <f>AVERAGE(E32:E36)</f>
+        <v>-13.2</v>
+      </c>
+      <c r="F37" s="7">
         <f>AVERAGE(F32:F36)</f>
         <v>179.8</v>
       </c>
@@ -2327,25 +2402,31 @@
         <f>AVERAGE(H32:H36)</f>
         <v>97.6</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="7">
         <f>(1/COUNT(I32:I36))*SUM(K32:K36)</f>
         <v>149.6</v>
       </c>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4">
+      <c r="J37" s="5">
+        <f>AVERAGE(J32:J36)</f>
+        <v>-13.006</v>
+      </c>
+      <c r="K37" s="7">
         <f>AVERAGE(K32:K36)</f>
         <v>149.6</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="7">
         <f>AVERAGE(M32:M36)</f>
         <v>108.33333333333333</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="7">
         <f>(1/COUNT(N32:N36))*SUM(P32:P36)</f>
         <v>1919.3333333333333</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4">
+      <c r="O37" s="4">
+        <f>AVERAGE(O32:O36)</f>
+        <v>-14.700000000000001</v>
+      </c>
+      <c r="P37" s="7">
         <f>AVERAGE(P32:P36)</f>
         <v>1919.3333333333333</v>
       </c>
@@ -2363,6 +2444,9 @@
       <c r="D38">
         <v>7</v>
       </c>
+      <c r="E38">
+        <v>-11.2</v>
+      </c>
       <c r="F38">
         <f>(C38-B38)^2</f>
         <v>289</v>
@@ -2373,6 +2457,9 @@
       <c r="I38">
         <v>9</v>
       </c>
+      <c r="J38">
+        <v>-12.4</v>
+      </c>
       <c r="K38">
         <f>(H38-B38)^2</f>
         <v>64</v>
@@ -2383,8 +2470,11 @@
       <c r="N38" t="s">
         <v>19</v>
       </c>
-      <c r="P38">
-        <v>81</v>
+      <c r="O38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -2400,6 +2490,9 @@
       <c r="D39">
         <v>16</v>
       </c>
+      <c r="E39">
+        <v>-13.5</v>
+      </c>
       <c r="F39">
         <f>(C39-B39)^2</f>
         <v>9</v>
@@ -2410,6 +2503,9 @@
       <c r="I39">
         <v>18</v>
       </c>
+      <c r="J39">
+        <v>-13.8</v>
+      </c>
       <c r="K39">
         <f>(H39-B39)^2</f>
         <v>144</v>
@@ -2420,6 +2516,9 @@
       <c r="N39">
         <v>23</v>
       </c>
+      <c r="O39">
+        <v>-14.2</v>
+      </c>
       <c r="P39">
         <f>(M39-B39)^2</f>
         <v>784</v>
@@ -2438,6 +2537,9 @@
       <c r="D40">
         <v>9</v>
       </c>
+      <c r="E40">
+        <v>-12.2</v>
+      </c>
       <c r="F40">
         <f>(C40-B40)^2</f>
         <v>400</v>
@@ -2448,6 +2550,9 @@
       <c r="I40">
         <v>19</v>
       </c>
+      <c r="J40">
+        <v>-14.7</v>
+      </c>
       <c r="K40">
         <f>(H40-B40)^2</f>
         <v>49</v>
@@ -2458,6 +2563,9 @@
       <c r="N40">
         <v>34</v>
       </c>
+      <c r="O40">
+        <v>-16</v>
+      </c>
       <c r="P40">
         <f>(M40-B40)^2</f>
         <v>225</v>
@@ -2477,7 +2585,7 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>2.1</v>
+        <v>-9.44</v>
       </c>
       <c r="F41">
         <f>(C41-B41)^2</f>
@@ -2490,7 +2598,7 @@
         <v>13</v>
       </c>
       <c r="J41">
-        <v>3.68</v>
+        <v>-12.6</v>
       </c>
       <c r="K41">
         <f>(H41-B41)^2</f>
@@ -2503,7 +2611,7 @@
         <v>21</v>
       </c>
       <c r="O41">
-        <v>-5.1100000000000003</v>
+        <v>-14.1</v>
       </c>
       <c r="P41">
         <f>(M41-B41)^2</f>
@@ -2523,6 +2631,9 @@
       <c r="D42">
         <v>12</v>
       </c>
+      <c r="E42">
+        <v>-13</v>
+      </c>
       <c r="F42">
         <f>(C42-B42)^2</f>
         <v>49</v>
@@ -2533,6 +2644,9 @@
       <c r="I42">
         <v>11</v>
       </c>
+      <c r="J42">
+        <v>-12.13</v>
+      </c>
       <c r="K42">
         <f>(H42-B42)^2</f>
         <v>441</v>
@@ -2543,28 +2657,34 @@
       <c r="N42" t="s">
         <v>19</v>
       </c>
+      <c r="O42" t="s">
+        <v>19</v>
+      </c>
       <c r="P42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4">
         <f>AVERAGE(B38:B42)</f>
         <v>70.8</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <f>AVERAGE(C37:C41)</f>
         <v>67.491200000000006</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="7">
         <f>(1/COUNT(D38:D42))*SUM(F38:F42)</f>
         <v>149.4</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4">
+      <c r="E43" s="5">
+        <f>AVERAGE(E38:E42)</f>
+        <v>-11.867999999999999</v>
+      </c>
+      <c r="F43" s="7">
         <f>AVERAGE(F38:F42)</f>
         <v>149.4</v>
       </c>
@@ -2572,28 +2692,37 @@
         <f>AVERAGE(H38:H42)</f>
         <v>69.599999999999994</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="7">
         <f>(1/COUNT(I38:I42))*SUM(K38:K42)</f>
         <v>142.80000000000001</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="J43" s="5">
+        <f>AVERAGE(J38:J42)</f>
+        <v>-13.126000000000001</v>
+      </c>
+      <c r="K43" s="7">
         <f>AVERAGE(K38:K42)</f>
         <v>142.80000000000001</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="5">
         <f>AVERAGE(M38:M42)</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="7">
         <f>(1/COUNT(N38:N42))*SUM(P38:P42)</f>
-        <v>795.33333333333326</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4">
+        <v>768.33333333333326</v>
+      </c>
+      <c r="O43" s="5">
+        <f>AVERAGE(O38:O42)</f>
+        <v>-14.766666666666666</v>
+      </c>
+      <c r="P43" s="7">
         <f>AVERAGE(P38:P42)</f>
-        <v>596.5</v>
-      </c>
+        <v>768.33333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2605,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2DD756-A1DF-4378-AA5F-60EF6EB1CB4C}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2614,7 +2743,7 @@
     <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2622,21 +2751,21 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>76</v>
@@ -2649,9 +2778,9 @@
         <f>malinger!I2</f>
         <v>8</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2">
         <f>malinger!J2</f>
-        <v>-</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="F2">
         <f>malinger!K2</f>
@@ -2660,7 +2789,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -2673,9 +2802,9 @@
         <f>malinger!I3</f>
         <v>11</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3">
         <f>malinger!J3</f>
-        <v>-</v>
+        <v>-8.48</v>
       </c>
       <c r="F3">
         <f>malinger!K3</f>
@@ -2684,7 +2813,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>77</v>
@@ -2697,9 +2826,9 @@
         <f>malinger!I4</f>
         <v>6</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4">
         <f>malinger!J4</f>
-        <v>-</v>
+        <v>-1.77</v>
       </c>
       <c r="F4">
         <f>malinger!K4</f>
@@ -2708,7 +2837,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -2721,9 +2850,9 @@
         <f>malinger!I5</f>
         <v>4</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5">
         <f>malinger!J5</f>
-        <v>-</v>
+        <v>-5.3</v>
       </c>
       <c r="F5">
         <f>malinger!K5</f>
@@ -2732,7 +2861,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>73</v>
@@ -2747,7 +2876,7 @@
       </c>
       <c r="E6">
         <f>malinger!J6</f>
-        <v>11.54</v>
+        <v>-3.18</v>
       </c>
       <c r="F6">
         <f>malinger!K6</f>
@@ -2756,7 +2885,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -2769,9 +2898,9 @@
         <f>malinger!I7</f>
         <v>17</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7">
         <f>malinger!J7</f>
-        <v>-</v>
+        <v>-15.3</v>
       </c>
       <c r="F7">
         <f>malinger!K7</f>
@@ -2780,7 +2909,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -2795,7 +2924,7 @@
       </c>
       <c r="E8">
         <f>malinger!J8</f>
-        <v>-0.65</v>
+        <v>-10.3</v>
       </c>
       <c r="F8">
         <f>malinger!K8</f>
@@ -2804,7 +2933,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>69</v>
@@ -2817,9 +2946,9 @@
         <f>malinger!I9</f>
         <v>15</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9">
         <f>malinger!J9</f>
-        <v>-</v>
+        <v>-11.9</v>
       </c>
       <c r="F9">
         <f>malinger!K9</f>
@@ -2828,7 +2957,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>73</v>
@@ -2841,9 +2970,9 @@
         <f>malinger!I10</f>
         <v>11</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10">
         <f>malinger!J10</f>
-        <v>-</v>
+        <v>-8.9600000000000009</v>
       </c>
       <c r="F10">
         <f>malinger!K10</f>
@@ -2852,7 +2981,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>76</v>
@@ -2865,9 +2994,9 @@
         <f>malinger!I11</f>
         <v>15</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11">
         <f>malinger!J11</f>
-        <v>-</v>
+        <v>-12.4</v>
       </c>
       <c r="F11">
         <f>malinger!K11</f>
@@ -2876,55 +3005,55 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4">
         <v>75.2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f>malinger!H12</f>
         <v>73.599999999999994</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <f>malinger!I12</f>
         <v>10.8</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="9">
         <f>malinger!J12</f>
-        <v>-</v>
-      </c>
-      <c r="F12">
+        <v>-4.6840000000000002</v>
+      </c>
+      <c r="F12" s="8">
         <f>malinger!K12</f>
         <v>10.8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4">
         <v>72.2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <f>malinger!H13</f>
         <v>74.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <f>malinger!I13</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="9">
         <f>malinger!J13</f>
-        <v>-</v>
-      </c>
-      <c r="F13">
+        <v>-11.772</v>
+      </c>
+      <c r="F13" s="8">
         <f>malinger!K13</f>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>73</v>
@@ -2939,7 +3068,7 @@
       </c>
       <c r="E14">
         <f>malinger!J14</f>
-        <v>-1.79</v>
+        <v>-16</v>
       </c>
       <c r="F14">
         <f>malinger!K14</f>
@@ -2948,7 +3077,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>76</v>
@@ -2961,9 +3090,9 @@
         <f>malinger!I15</f>
         <v>12</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15">
         <f>malinger!J15</f>
-        <v>-</v>
+        <v>-12</v>
       </c>
       <c r="F15">
         <f>malinger!K15</f>
@@ -2972,7 +3101,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>68</v>
@@ -2985,9 +3114,9 @@
         <f>malinger!I16</f>
         <v>9</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16">
         <f>malinger!J16</f>
-        <v>-</v>
+        <v>-10.7</v>
       </c>
       <c r="F16">
         <f>malinger!K16</f>
@@ -2996,7 +3125,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>72</v>
@@ -3009,9 +3138,9 @@
         <f>malinger!I17</f>
         <v>8</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17">
         <f>malinger!J17</f>
-        <v>-</v>
+        <v>-11.9</v>
       </c>
       <c r="F17">
         <f>malinger!K17</f>
@@ -3020,7 +3149,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>72</v>
@@ -3033,9 +3162,9 @@
         <f>malinger!I18</f>
         <v>12</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18">
         <f>malinger!J18</f>
-        <v>-</v>
+        <v>-13</v>
       </c>
       <c r="F18">
         <f>malinger!K18</f>
@@ -3044,7 +3173,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>74</v>
@@ -3059,7 +3188,7 @@
       </c>
       <c r="E19">
         <f>malinger!J19</f>
-        <v>3.81</v>
+        <v>-11.9</v>
       </c>
       <c r="F19">
         <f>malinger!K19</f>
@@ -3068,7 +3197,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>72</v>
@@ -3081,9 +3210,9 @@
         <f>malinger!I20</f>
         <v>9</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20">
         <f>malinger!J20</f>
-        <v>-</v>
+        <v>-12.3</v>
       </c>
       <c r="F20">
         <f>malinger!K20</f>
@@ -3092,7 +3221,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -3105,9 +3234,9 @@
         <f>malinger!I21</f>
         <v>2</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21">
         <f>malinger!J21</f>
-        <v>-</v>
+        <v>-7.56</v>
       </c>
       <c r="F21">
         <f>malinger!K21</f>
@@ -3116,7 +3245,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>74</v>
@@ -3129,9 +3258,9 @@
         <f>malinger!I22</f>
         <v>9</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22">
         <f>malinger!J22</f>
-        <v>-</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="F22">
         <f>malinger!K22</f>
@@ -3140,7 +3269,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -3153,9 +3282,9 @@
         <f>malinger!I23</f>
         <v>6</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23">
         <f>malinger!J23</f>
-        <v>-</v>
+        <v>-8.4</v>
       </c>
       <c r="F23">
         <f>malinger!K23</f>
@@ -3164,48 +3293,48 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4">
         <v>72.2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <f>malinger!H24</f>
         <v>62.4</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <f>malinger!I24</f>
         <v>223.8</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="11">
         <f>malinger!J24</f>
-        <v>-</v>
-      </c>
-      <c r="F24">
+        <v>-12.72</v>
+      </c>
+      <c r="F24" s="10">
         <f>malinger!K24</f>
         <v>223.8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4">
         <v>72.8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <f>malinger!H25</f>
         <v>56.4</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <f>malinger!I25</f>
         <v>354</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="11">
         <f>malinger!J25</f>
-        <v>-</v>
-      </c>
-      <c r="F25">
+        <v>-10.071999999999999</v>
+      </c>
+      <c r="F25" s="10">
         <f>malinger!K25</f>
         <v>202.2</v>
       </c>
@@ -3225,9 +3354,9 @@
         <f>malinger!I26</f>
         <v>21</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26">
         <f>malinger!J26</f>
-        <v>-</v>
+        <v>-10.71</v>
       </c>
       <c r="F26">
         <f>malinger!K26</f>
@@ -3249,9 +3378,9 @@
         <f>malinger!I27</f>
         <v>9</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27">
         <f>malinger!J27</f>
-        <v>-</v>
+        <v>-12.7</v>
       </c>
       <c r="F27">
         <f>malinger!K27</f>
@@ -3273,9 +3402,9 @@
         <f>malinger!I28</f>
         <v>6</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28">
         <f>malinger!J28</f>
-        <v>-</v>
+        <v>-9.64</v>
       </c>
       <c r="F28">
         <f>malinger!K28</f>
@@ -3297,9 +3426,9 @@
         <f>malinger!I29</f>
         <v>4</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29">
         <f>malinger!J29</f>
-        <v>-</v>
+        <v>-7.19</v>
       </c>
       <c r="F29">
         <f>malinger!K29</f>
@@ -3323,7 +3452,7 @@
       </c>
       <c r="E30">
         <f>malinger!J30</f>
-        <v>9.2100000000000009</v>
+        <v>-6.19</v>
       </c>
       <c r="F30">
         <f>malinger!K30</f>
@@ -3332,24 +3461,24 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4">
         <v>72.8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <f>malinger!H31</f>
         <v>74.599999999999994</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="8">
         <f>malinger!I31</f>
         <v>27.8</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="9">
         <f>malinger!J31</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
+        <v>-9.2859999999999978</v>
+      </c>
+      <c r="F31" s="8">
         <f>malinger!K31</f>
         <v>27.8</v>
       </c>
@@ -3371,7 +3500,7 @@
       </c>
       <c r="E32">
         <f>malinger!J32</f>
-        <v>0</v>
+        <v>-16.8</v>
       </c>
       <c r="F32">
         <f>malinger!K32</f>
@@ -3395,7 +3524,7 @@
       </c>
       <c r="E33">
         <f>malinger!J33</f>
-        <v>0</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="F33">
         <f>malinger!K33</f>
@@ -3419,7 +3548,7 @@
       </c>
       <c r="E34">
         <f>malinger!J34</f>
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="F34">
         <f>malinger!K34</f>
@@ -3443,7 +3572,7 @@
       </c>
       <c r="E35">
         <f>malinger!J35</f>
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="F35">
         <f>malinger!K35</f>
@@ -3467,7 +3596,7 @@
       </c>
       <c r="E36">
         <f>malinger!J36</f>
-        <v>15.87</v>
+        <v>-7.13</v>
       </c>
       <c r="F36">
         <f>malinger!K36</f>
@@ -3476,24 +3605,24 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B37" s="4">
         <v>103.2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="8">
         <f>malinger!H37</f>
         <v>97.6</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <f>malinger!I37</f>
         <v>149.6</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="11">
         <f>malinger!J37</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
+        <v>-13.006</v>
+      </c>
+      <c r="F37" s="10">
         <f>malinger!K37</f>
         <v>149.6</v>
       </c>
@@ -3515,7 +3644,7 @@
       </c>
       <c r="E38">
         <f>malinger!J38</f>
-        <v>0</v>
+        <v>-12.4</v>
       </c>
       <c r="F38">
         <f>malinger!K38</f>
@@ -3539,7 +3668,7 @@
       </c>
       <c r="E39">
         <f>malinger!J39</f>
-        <v>0</v>
+        <v>-13.8</v>
       </c>
       <c r="F39">
         <f>malinger!K39</f>
@@ -3563,7 +3692,7 @@
       </c>
       <c r="E40">
         <f>malinger!J40</f>
-        <v>0</v>
+        <v>-14.7</v>
       </c>
       <c r="F40">
         <f>malinger!K40</f>
@@ -3587,7 +3716,7 @@
       </c>
       <c r="E41">
         <f>malinger!J41</f>
-        <v>3.68</v>
+        <v>-12.6</v>
       </c>
       <c r="F41">
         <f>malinger!K41</f>
@@ -3609,9 +3738,9 @@
         <f>malinger!I42</f>
         <v>11</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <f>malinger!J42</f>
-        <v>0</v>
+        <v>-12.13</v>
       </c>
       <c r="F42">
         <f>malinger!K42</f>
@@ -3620,24 +3749,24 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4">
         <v>70.8</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="8">
         <f>malinger!H43</f>
         <v>69.599999999999994</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="10">
         <f>malinger!I43</f>
         <v>142.80000000000001</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="11">
         <f>malinger!J43</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
+        <v>-13.126000000000001</v>
+      </c>
+      <c r="F43" s="10">
         <f>malinger!K43</f>
         <v>142.80000000000001</v>
       </c>
@@ -3651,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D919A5-4B55-4936-B2D2-2FF797B712DE}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3670,21 +3799,21 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>76</v>
@@ -3697,9 +3826,9 @@
         <f>malinger!N2</f>
         <v>16</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2">
         <f>malinger!O2</f>
-        <v>-</v>
+        <v>-7.79</v>
       </c>
       <c r="F2">
         <f>malinger!P2</f>
@@ -3708,7 +3837,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -3721,9 +3850,9 @@
         <f>malinger!N3</f>
         <v>22</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3">
         <f>malinger!O3</f>
-        <v>-</v>
+        <v>-6.09</v>
       </c>
       <c r="F3">
         <f>malinger!P3</f>
@@ -3732,7 +3861,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>77</v>
@@ -3745,9 +3874,9 @@
         <f>malinger!N4</f>
         <v>30</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4">
         <f>malinger!O4</f>
-        <v>-</v>
+        <v>-8.3699999999999992</v>
       </c>
       <c r="F4">
         <f>malinger!P4</f>
@@ -3756,7 +3885,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -3769,9 +3898,9 @@
         <f>malinger!N5</f>
         <v>4</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5">
         <f>malinger!O5</f>
-        <v>-</v>
+        <v>-5.19</v>
       </c>
       <c r="F5">
         <f>malinger!P5</f>
@@ -3780,7 +3909,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>73</v>
@@ -3795,7 +3924,7 @@
       </c>
       <c r="E6">
         <f>malinger!O6</f>
-        <v>9.99</v>
+        <v>-2.85</v>
       </c>
       <c r="F6">
         <f>malinger!P6</f>
@@ -3804,7 +3933,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>71</v>
@@ -3817,9 +3946,9 @@
         <f>malinger!N7</f>
         <v>28</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7">
         <f>malinger!O7</f>
-        <v>-</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="F7">
         <f>malinger!P7</f>
@@ -3828,7 +3957,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>72</v>
@@ -3843,7 +3972,7 @@
       </c>
       <c r="E8">
         <f>malinger!O8</f>
-        <v>-4.5</v>
+        <v>-13.6</v>
       </c>
       <c r="F8">
         <f>malinger!P8</f>
@@ -3852,7 +3981,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>69</v>
@@ -3865,9 +3994,9 @@
         <f>malinger!N9</f>
         <v>NaN</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9">
         <f>malinger!O9</f>
-        <v>-</v>
+        <v>-14.5</v>
       </c>
       <c r="F9" t="str">
         <f>malinger!P9</f>
@@ -3876,7 +4005,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>73</v>
@@ -3889,9 +4018,9 @@
         <f>malinger!N10</f>
         <v>23</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10">
         <f>malinger!O10</f>
-        <v>-</v>
+        <v>-9.64</v>
       </c>
       <c r="F10">
         <f>malinger!P10</f>
@@ -3900,7 +4029,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>76</v>
@@ -3913,9 +4042,9 @@
         <f>malinger!N11</f>
         <v>18</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11">
         <f>malinger!O11</f>
-        <v>-</v>
+        <v>-12.9</v>
       </c>
       <c r="F11">
         <f>malinger!P11</f>
@@ -3924,55 +4053,55 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4">
         <v>75.2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f>malinger!M12</f>
         <v>83.8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <f>malinger!N12</f>
         <v>384.6</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="9">
         <f>malinger!O12</f>
-        <v>-</v>
-      </c>
-      <c r="F12">
+        <v>-6.0580000000000007</v>
+      </c>
+      <c r="F12" s="10">
         <f>malinger!P12</f>
         <v>384.6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4">
         <v>72.2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <f>malinger!M13</f>
         <v>103.25</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <f>malinger!N13</f>
         <v>990.75</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="11">
         <f>malinger!O13</f>
-        <v>-</v>
-      </c>
-      <c r="F13">
+        <v>-13.348000000000003</v>
+      </c>
+      <c r="F13" s="10">
         <f>malinger!P13</f>
         <v>990.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>73</v>
@@ -3987,7 +4116,7 @@
       </c>
       <c r="E14">
         <f>malinger!O14</f>
-        <v>-0.60399999999999998</v>
+        <v>-16.8</v>
       </c>
       <c r="F14">
         <f>malinger!P14</f>
@@ -3996,7 +4125,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>76</v>
@@ -4009,9 +4138,9 @@
         <f>malinger!N15</f>
         <v>15</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15">
         <f>malinger!O15</f>
-        <v>-</v>
+        <v>-12.3</v>
       </c>
       <c r="F15">
         <f>malinger!P15</f>
@@ -4020,7 +4149,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B16">
         <v>68</v>
@@ -4033,9 +4162,9 @@
         <f>malinger!N16</f>
         <v>24</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16">
         <f>malinger!O16</f>
-        <v>-</v>
+        <v>-13.7</v>
       </c>
       <c r="F16">
         <f>malinger!P16</f>
@@ -4044,7 +4173,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>72</v>
@@ -4057,9 +4186,9 @@
         <f>malinger!N17</f>
         <v>30</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17">
         <f>malinger!O17</f>
-        <v>-</v>
+        <v>-14.7</v>
       </c>
       <c r="F17">
         <f>malinger!P17</f>
@@ -4068,7 +4197,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>72</v>
@@ -4081,9 +4210,9 @@
         <f>malinger!N18</f>
         <v>22</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18">
         <f>malinger!O18</f>
-        <v>-</v>
+        <v>-14</v>
       </c>
       <c r="F18">
         <f>malinger!P18</f>
@@ -4092,7 +4221,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>74</v>
@@ -4107,7 +4236,7 @@
       </c>
       <c r="E19">
         <f>malinger!O19</f>
-        <v>2.34</v>
+        <v>-14.1</v>
       </c>
       <c r="F19">
         <f>malinger!P19</f>
@@ -4116,7 +4245,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>72</v>
@@ -4129,9 +4258,9 @@
         <f>malinger!N20</f>
         <v>22</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20">
         <f>malinger!O20</f>
-        <v>-</v>
+        <v>-14.2</v>
       </c>
       <c r="F20">
         <f>malinger!P20</f>
@@ -4140,7 +4269,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>72</v>
@@ -4153,9 +4282,9 @@
         <f>malinger!N21</f>
         <v>14</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21">
         <f>malinger!O21</f>
-        <v>-</v>
+        <v>-13.1</v>
       </c>
       <c r="F21">
         <f>malinger!P21</f>
@@ -4164,7 +4293,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>74</v>
@@ -4177,9 +4306,9 @@
         <f>malinger!N22</f>
         <v>16</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22">
         <f>malinger!O22</f>
-        <v>-</v>
+        <v>-13.8</v>
       </c>
       <c r="F22">
         <f>malinger!P22</f>
@@ -4188,7 +4317,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>72</v>
@@ -4201,9 +4330,9 @@
         <f>malinger!N23</f>
         <v>26</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23">
         <f>malinger!O23</f>
-        <v>-</v>
+        <v>-14.2</v>
       </c>
       <c r="F23">
         <f>malinger!P23</f>
@@ -4212,48 +4341,48 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" s="4">
         <v>72.2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="8">
         <f>malinger!M24</f>
         <v>88.8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <f>malinger!N24</f>
         <v>379</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="8">
         <f>malinger!O24</f>
-        <v>-</v>
-      </c>
-      <c r="F24">
+        <v>-14.3</v>
+      </c>
+      <c r="F24" s="8">
         <f>malinger!P24</f>
         <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4">
         <v>72.8</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="8">
         <f>malinger!M25</f>
         <v>87</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <f>malinger!N25</f>
         <v>610.6</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="11">
         <f>malinger!O25</f>
-        <v>-</v>
-      </c>
-      <c r="F25">
+        <v>-13.88</v>
+      </c>
+      <c r="F25" s="10">
         <f>malinger!P25</f>
         <v>610.6</v>
       </c>
@@ -4273,9 +4402,9 @@
         <f>malinger!N26</f>
         <v>20</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="2">
         <f>malinger!O26</f>
-        <v>-</v>
+        <v>-10.72</v>
       </c>
       <c r="F26">
         <f>malinger!P26</f>
@@ -4297,9 +4426,9 @@
         <f>malinger!N27</f>
         <v>11</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27">
         <f>malinger!O27</f>
-        <v>-</v>
+        <v>-11.5</v>
       </c>
       <c r="F27">
         <f>malinger!P27</f>
@@ -4321,9 +4450,9 @@
         <f>malinger!N28</f>
         <v>11</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28">
         <f>malinger!O28</f>
-        <v>-</v>
+        <v>-11.9</v>
       </c>
       <c r="F28">
         <f>malinger!P28</f>
@@ -4345,9 +4474,9 @@
         <f>malinger!N29</f>
         <v>4</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29">
         <f>malinger!O29</f>
-        <v>-</v>
+        <v>-8.41</v>
       </c>
       <c r="F29">
         <f>malinger!P29</f>
@@ -4371,7 +4500,7 @@
       </c>
       <c r="E30">
         <f>malinger!O30</f>
-        <v>31.93</v>
+        <v>-8.9499999999999993</v>
       </c>
       <c r="F30">
         <f>malinger!P30</f>
@@ -4380,24 +4509,24 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" s="4">
         <v>72.8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="8">
         <f>malinger!M31</f>
         <v>68.2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="10">
         <f>malinger!N31</f>
         <v>146.20000000000002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="11">
         <f>malinger!O31</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
+        <v>-10.296000000000001</v>
+      </c>
+      <c r="F31" s="10">
         <f>malinger!P31</f>
         <v>146.19999999999999</v>
       </c>
@@ -4419,7 +4548,7 @@
       </c>
       <c r="E32">
         <f>malinger!O32</f>
-        <v>0</v>
+        <v>-14.6</v>
       </c>
       <c r="F32">
         <f>malinger!P32</f>
@@ -4443,7 +4572,7 @@
       </c>
       <c r="E33">
         <f>malinger!O33</f>
-        <v>0</v>
+        <v>-15.6</v>
       </c>
       <c r="F33">
         <f>malinger!P33</f>
@@ -4465,9 +4594,9 @@
         <f>malinger!N34</f>
         <v>NaN</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="str">
         <f>malinger!O34</f>
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="F34" t="str">
         <f>malinger!P34</f>
@@ -4489,9 +4618,9 @@
         <f>malinger!N35</f>
         <v>NaN</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="str">
         <f>malinger!O35</f>
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="F35" t="str">
         <f>malinger!P35</f>
@@ -4515,7 +4644,7 @@
       </c>
       <c r="E36">
         <f>malinger!O36</f>
-        <v>-1.32</v>
+        <v>-13.9</v>
       </c>
       <c r="F36">
         <f>malinger!P36</f>
@@ -4524,24 +4653,24 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="4">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
         <v>103.2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="10">
         <f>malinger!M37</f>
         <v>108.33333333333333</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="10">
         <f>malinger!N37</f>
         <v>1919.3333333333333</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="8">
         <f>malinger!O37</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
+        <v>-14.700000000000001</v>
+      </c>
+      <c r="F37" s="10">
         <f>malinger!P37</f>
         <v>1919.3333333333333</v>
       </c>
@@ -4561,13 +4690,13 @@
         <f>malinger!N38</f>
         <v>NaN</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="str">
         <f>malinger!O38</f>
-        <v>0</v>
-      </c>
-      <c r="F38">
+        <v>NaN</v>
+      </c>
+      <c r="F38" t="str">
         <f>malinger!P38</f>
-        <v>81</v>
+        <v>NaN</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -4587,7 +4716,7 @@
       </c>
       <c r="E39">
         <f>malinger!O39</f>
-        <v>0</v>
+        <v>-14.2</v>
       </c>
       <c r="F39">
         <f>malinger!P39</f>
@@ -4611,7 +4740,7 @@
       </c>
       <c r="E40">
         <f>malinger!O40</f>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="F40">
         <f>malinger!P40</f>
@@ -4635,7 +4764,7 @@
       </c>
       <c r="E41">
         <f>malinger!O41</f>
-        <v>-5.1100000000000003</v>
+        <v>-14.1</v>
       </c>
       <c r="F41">
         <f>malinger!P41</f>
@@ -4657,9 +4786,9 @@
         <f>malinger!N42</f>
         <v>NaN</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="str">
         <f>malinger!O42</f>
-        <v>0</v>
+        <v>NaN</v>
       </c>
       <c r="F42" t="str">
         <f>malinger!P42</f>
@@ -4668,26 +4797,26 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B43" s="4">
         <v>70.8</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="10">
         <f>malinger!M43</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="10">
         <f>malinger!N43</f>
-        <v>795.33333333333326</v>
-      </c>
-      <c r="E43">
+        <v>768.33333333333326</v>
+      </c>
+      <c r="E43" s="11">
         <f>malinger!O43</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
+        <v>-14.766666666666666</v>
+      </c>
+      <c r="F43" s="10">
         <f>malinger!P43</f>
-        <v>596.5</v>
+        <v>768.33333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/lab/lab4/malinger.xlsx
+++ b/lab/lab4/malinger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaute\Documents\TTT4280\lab\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718A7AD-2379-453D-8D8F-E0872C91BFE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18284B6C-87AC-4FD2-AD5E-2F052A827D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="19200" windowHeight="10060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="malinger" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
